--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_24_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142635.491673813</v>
+        <v>2139068.768003943</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025776.224531031</v>
+        <v>6025776.224531027</v>
       </c>
     </row>
     <row r="9">
@@ -1372,70 +1372,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>187.3291990328134</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25.97902681711344</v>
+      </c>
+      <c r="T11" t="n">
+        <v>114.5653632741255</v>
+      </c>
+      <c r="U11" t="n">
+        <v>154.0043098752599</v>
+      </c>
+      <c r="V11" t="n">
         <v>212.6807436793977</v>
       </c>
-      <c r="E11" t="n">
+      <c r="W11" t="n">
         <v>212.6807436793977</v>
       </c>
-      <c r="F11" t="n">
-        <v>212.6807436793977</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>105.4612427457123</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.22726864035519</v>
+        <v>51.22726864035513</v>
       </c>
       <c r="C12" t="n">
-        <v>50.09658567931217</v>
+        <v>50.09658567931211</v>
       </c>
       <c r="D12" t="n">
-        <v>29.73697524853793</v>
+        <v>29.73697524853787</v>
       </c>
       <c r="E12" t="n">
-        <v>36.03092352402462</v>
+        <v>36.03092352402456</v>
       </c>
       <c r="F12" t="n">
-        <v>24.13638559950299</v>
+        <v>24.13638559950293</v>
       </c>
       <c r="G12" t="n">
-        <v>18.87318965702457</v>
+        <v>18.87318965702451</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17.16439709702908</v>
+        <v>17.16439709702902</v>
       </c>
       <c r="T12" t="n">
-        <v>72.39445676571387</v>
+        <v>72.39445676571378</v>
       </c>
       <c r="U12" t="n">
-        <v>108.8499010348667</v>
+        <v>108.8499010348671</v>
       </c>
       <c r="V12" t="n">
-        <v>121.2634991564471</v>
+        <v>121.263499156447</v>
       </c>
       <c r="W12" t="n">
-        <v>128.7649709518495</v>
+        <v>128.7649709518494</v>
       </c>
       <c r="X12" t="n">
-        <v>88.36290441729193</v>
+        <v>88.36290441729187</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.46997229905131</v>
+        <v>78.46997229905125</v>
       </c>
     </row>
     <row r="13">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.30483604819173</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>69.45196429847414</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.02567951031386</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.95212156319297</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.70157298296024</v>
+        <v>56.70157298296019</v>
       </c>
       <c r="G13" t="n">
-        <v>66.73659898189236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>47.90386251607082</v>
+        <v>47.90386251607076</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>88.07711636605366</v>
+        <v>88.07711636605362</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.9617442751952</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>183.4905480066782</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>180.3878396885303</v>
+        <v>181.4459955919376</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>132.6884165386501</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.8298381153265</v>
+        <v>4.102173793460785</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>187.3291990328135</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.97902681711344</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>114.5653632741255</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>154.0043098752599</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>212.6807436793977</v>
       </c>
       <c r="W14" t="n">
-        <v>212.6807436793978</v>
+        <v>212.6807436793977</v>
       </c>
       <c r="X14" t="n">
-        <v>212.6807436793978</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.6807436793978</v>
+        <v>105.4612427457123</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.22726864035519</v>
+        <v>51.22726864035513</v>
       </c>
       <c r="C15" t="n">
-        <v>50.09658567931217</v>
+        <v>50.09658567931211</v>
       </c>
       <c r="D15" t="n">
-        <v>29.73697524853793</v>
+        <v>29.73697524853787</v>
       </c>
       <c r="E15" t="n">
-        <v>36.03092352402462</v>
+        <v>36.03092352402456</v>
       </c>
       <c r="F15" t="n">
-        <v>24.13638559950299</v>
+        <v>24.13638559950293</v>
       </c>
       <c r="G15" t="n">
-        <v>18.87318965702457</v>
+        <v>18.87318965702451</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>17.16439709702908</v>
+        <v>17.16439709702902</v>
       </c>
       <c r="T15" t="n">
-        <v>72.39445676571383</v>
+        <v>72.39445676571377</v>
       </c>
       <c r="U15" t="n">
         <v>108.8499010348669</v>
       </c>
       <c r="V15" t="n">
-        <v>121.2634991564471</v>
+        <v>121.263499156447</v>
       </c>
       <c r="W15" t="n">
-        <v>128.7649709518495</v>
+        <v>128.7649709518494</v>
       </c>
       <c r="X15" t="n">
-        <v>88.36290441729193</v>
+        <v>88.36290441729187</v>
       </c>
       <c r="Y15" t="n">
-        <v>78.46997229905131</v>
+        <v>78.46997229905125</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.30483604819173</v>
+        <v>84.30483604819167</v>
       </c>
       <c r="C16" t="n">
-        <v>69.45196429847414</v>
+        <v>69.45196429847408</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.02567951031381</v>
       </c>
       <c r="E16" t="n">
-        <v>54.95212156319297</v>
+        <v>54.95212156319292</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.70157298296019</v>
       </c>
       <c r="G16" t="n">
-        <v>66.73659898189236</v>
+        <v>66.7365989818923</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.90386251607076</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.141016445771424</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>88.07711636605366</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>183.4905480066783</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>23.83999015254713</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>181.4459955919376</v>
       </c>
       <c r="X16" t="n">
-        <v>132.6884165386502</v>
+        <v>132.6884165386501</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.8298381153265</v>
+        <v>67.01936559355163</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.412404695970835</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.6807436793977</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>212.6807436793977</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>212.6807436793977</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>177.9167943368426</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>88.58633645701202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>133.5068119183566</v>
       </c>
     </row>
     <row r="18">
@@ -1934,13 +1934,13 @@
         <v>10.05189670691112</v>
       </c>
       <c r="F18" t="n">
-        <v>17.46764566379559</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>87.03802548760741</v>
       </c>
       <c r="H18" t="n">
-        <v>78.38500954389595</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>116.2154995532256</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>46.41542994860034</v>
+        <v>171.4455592219104</v>
       </c>
       <c r="U18" t="n">
         <v>82.87087421775345</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.32580923107824</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>43.47293748136065</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>30.72254616584675</v>
       </c>
       <c r="G19" t="n">
         <v>40.75757216477887</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>62.09808954894017</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>104.9827174580817</v>
@@ -2067,10 +2067,10 @@
         <v>155.4669687748241</v>
       </c>
       <c r="X19" t="n">
-        <v>13.49490337614623</v>
+        <v>7.345444692105063</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>95.85081129821305</v>
       </c>
     </row>
     <row r="20">
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="D20" t="n">
-        <v>9.412404695970947</v>
+        <v>187.3291990328135</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>212.6807436793978</v>
       </c>
-      <c r="F20" t="n">
+      <c r="Y20" t="n">
         <v>212.6807436793978</v>
-      </c>
-      <c r="G20" t="n">
-        <v>212.6807436793978</v>
-      </c>
-      <c r="H20" t="n">
-        <v>177.9167943368426</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>116.2154995532256</v>
       </c>
       <c r="T21" t="n">
-        <v>171.4455592219104</v>
+        <v>142.2680851562922</v>
       </c>
       <c r="U21" t="n">
-        <v>169.9088997053609</v>
+        <v>82.87087421775345</v>
       </c>
       <c r="V21" t="n">
         <v>95.2844723393336</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.4596689809729</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>256.5565882221889</v>
       </c>
       <c r="E23" t="n">
-        <v>273.5275603613109</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.03784705379881</v>
+        <v>276.7811710540448</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>66.61104767713263</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>88.58633645701202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>128.0252830581464</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>213.6556119302068</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>260.5279497429637</v>
       </c>
       <c r="Y23" t="n">
-        <v>267.4956727152949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>3.757948431424438</v>
       </c>
       <c r="E24" t="n">
-        <v>18.70491265062282</v>
+        <v>10.05189670691112</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>78.38500954389595</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>207.9010034910635</v>
       </c>
       <c r="V24" t="n">
-        <v>95.2844723393336</v>
+        <v>182.3224978269412</v>
       </c>
       <c r="W24" t="n">
         <v>102.785944134736</v>
@@ -2532,7 +2532,7 @@
         <v>104.9827174580818</v>
       </c>
       <c r="U25" t="n">
-        <v>157.5115211895647</v>
+        <v>157.5115211895652</v>
       </c>
       <c r="V25" t="n">
         <v>138.289422454074</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>276.2571189261066</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>153.2780507925683</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>183.467311542498</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>269.0976404145583</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>297.700943892437</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>313.6434138579777</v>
       </c>
     </row>
     <row r="27">
@@ -2690,7 +2690,7 @@
         <v>101.8574584329519</v>
       </c>
       <c r="U27" t="n">
-        <v>138.3129027021049</v>
+        <v>138.3129027021052</v>
       </c>
       <c r="V27" t="n">
         <v>150.7265008236852</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.7678377154298</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>98.9149659657122</v>
@@ -2721,19 +2721,19 @@
         <v>84.48868117755192</v>
       </c>
       <c r="E28" t="n">
-        <v>28.36470462285175</v>
+        <v>20.52729694975953</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>96.19960064913042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>77.36686418330888</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>38.60401811300954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>117.5401180332917</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>212.9535496739163</v>
       </c>
       <c r="V28" t="n">
         <v>193.7314509384256</v>
@@ -2781,7 +2781,7 @@
         <v>162.1514182058883</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.2928397825646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23.10194847708874</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>220.815090441755</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.44202848435155</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>269.0976404145583</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>297.700943892437</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="Y29" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>113.7678377154298</v>
       </c>
       <c r="C31" t="n">
         <v>98.9149659657122</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>71.26325637803811</v>
+        <v>96.19960064913042</v>
       </c>
       <c r="H31" t="n">
         <v>77.36686418330888</v>
       </c>
       <c r="I31" t="n">
-        <v>38.60401811300954</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.83084438085177</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.4247459424333</v>
       </c>
       <c r="U31" t="n">
         <v>212.9535496739163</v>
       </c>
       <c r="V31" t="n">
-        <v>193.7314509384256</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>210.9089972591757</v>
       </c>
       <c r="X31" t="n">
-        <v>162.1514182058883</v>
+        <v>77.52711494751676</v>
       </c>
       <c r="Y31" t="n">
         <v>151.2928397825646</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>271.4596689809729</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>264.2136172087887</v>
       </c>
       <c r="D32" t="n">
-        <v>256.5565882221889</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>262.6564999527613</v>
+        <v>273.5275603613109</v>
       </c>
       <c r="F32" t="n">
-        <v>287.695364812012</v>
+        <v>279.961230890821</v>
       </c>
       <c r="G32" t="n">
-        <v>282.2536244549305</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>117.9242921132211</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>32.50015252754468</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>54.53787296006281</v>
       </c>
       <c r="T33" t="n">
-        <v>140.5592925962967</v>
+        <v>171.4455592219104</v>
       </c>
       <c r="U33" t="n">
         <v>82.87087421775345</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9.412404695970835</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="G35" t="n">
-        <v>212.6807436793976</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="H35" t="n">
         <v>177.9167943368426</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.412404695970723</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.6807436793976</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.6807436793976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>3.757948431424438</v>
       </c>
       <c r="E36" t="n">
-        <v>10.05189670691112</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>32.50015252754468</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>116.2154995532256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>46.41542994860034</v>
+        <v>100.9533029086631</v>
       </c>
       <c r="U36" t="n">
         <v>82.87087421775345</v>
@@ -3407,7 +3407,7 @@
         <v>95.2844723393336</v>
       </c>
       <c r="W36" t="n">
-        <v>198.6385993424277</v>
+        <v>102.785944134736</v>
       </c>
       <c r="X36" t="n">
         <v>62.38387760017844</v>
@@ -3429,16 +3429,16 @@
         <v>43.47293748136065</v>
       </c>
       <c r="D37" t="n">
-        <v>29.04665269320037</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>28.97309474607948</v>
       </c>
       <c r="F37" t="n">
-        <v>30.72254616584675</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>40.75757216477887</v>
+        <v>9.277353657861457</v>
       </c>
       <c r="H37" t="n">
         <v>21.92483569895732</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>62.09808954894017</v>
       </c>
       <c r="T37" t="n">
         <v>104.9827174580817</v>
       </c>
       <c r="U37" t="n">
-        <v>157.5115211895648</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>138.289422454074</v>
       </c>
       <c r="W37" t="n">
         <v>155.4669687748241</v>
       </c>
       <c r="X37" t="n">
-        <v>58.33596316902095</v>
+        <v>106.7093897215367</v>
       </c>
       <c r="Y37" t="n">
         <v>95.85081129821305</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>183.3983231970525</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>177.9167943368426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>128.0252830581464</v>
       </c>
       <c r="V38" t="n">
-        <v>212.6807436793976</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="W38" t="n">
-        <v>212.6807436793976</v>
+        <v>5.481528860210171</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>24.11755886219868</v>
       </c>
       <c r="D39" t="n">
-        <v>3.757948431424438</v>
+        <v>90.79597391903185</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>10.05189670691112</v>
       </c>
       <c r="F39" t="n">
-        <v>87.03802548760743</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>46.41542994860034</v>
+        <v>171.4455592219104</v>
       </c>
       <c r="U39" t="n">
         <v>82.87087421775345</v>
@@ -3663,16 +3663,16 @@
         <v>58.32580923107824</v>
       </c>
       <c r="C40" t="n">
-        <v>43.47293748136065</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>29.04665269320037</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>28.97309474607948</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30.72254616584675</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>40.75757216477887</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>75.83138964105665</v>
+        <v>104.9827174580817</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.0639032694629</v>
       </c>
       <c r="V40" t="n">
         <v>138.289422454074</v>
@@ -3745,67 +3745,67 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>11.52471463211172</v>
+        <v>212.6807436793979</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>212.6807436793979</v>
       </c>
-      <c r="F41" t="n">
+      <c r="W41" t="n">
+        <v>187.3291990328136</v>
+      </c>
+      <c r="X41" t="n">
         <v>212.6807436793979</v>
-      </c>
-      <c r="G41" t="n">
-        <v>212.6807436793979</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>43.60907397184498</v>
-      </c>
-      <c r="T41" t="n">
-        <v>132.195410428857</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.85731579508668</v>
+        <v>68.85731579508673</v>
       </c>
       <c r="C42" t="n">
-        <v>67.72663283404366</v>
+        <v>67.72663283404371</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.36702240326947</v>
       </c>
       <c r="E42" t="n">
-        <v>53.6609706787561</v>
+        <v>53.66097067875616</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>41.76643275423453</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>34.79444425176057</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>90.02450392044531</v>
+        <v>90.02450392044537</v>
       </c>
       <c r="U42" t="n">
-        <v>22.92602714734915</v>
+        <v>126.4799481895985</v>
       </c>
       <c r="V42" t="n">
         <v>138.8935463111786</v>
       </c>
       <c r="W42" t="n">
-        <v>146.3950181065809</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>105.9929515720234</v>
+        <v>94.49503773061127</v>
       </c>
       <c r="Y42" t="n">
-        <v>96.10001945378279</v>
+        <v>96.10001945378285</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.9348832029232</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>87.08201145320562</v>
+        <v>87.08201145320568</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.3666461366239</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.997889868345197</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>148.5917914299267</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>122.6297696152077</v>
       </c>
       <c r="V43" t="n">
-        <v>181.8984964259189</v>
+        <v>181.898496425919</v>
       </c>
       <c r="W43" t="n">
-        <v>10.08800872724777</v>
+        <v>199.0760427466691</v>
       </c>
       <c r="X43" t="n">
         <v>150.3184636933817</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.459885270058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,61 +3985,61 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>212.6807436793979</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>187.3291990328136</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>212.6807436793979</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>132.1954104288571</v>
+      </c>
+      <c r="U44" t="n">
+        <v>171.6343570299915</v>
+      </c>
+      <c r="V44" t="n">
+        <v>96.18017525336299</v>
+      </c>
+      <c r="W44" t="n">
         <v>212.6807436793979</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68.85731579508668</v>
+        <v>68.85731579508673</v>
       </c>
       <c r="C45" t="n">
-        <v>17.83368247055044</v>
+        <v>67.72663283404371</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>47.36702240326947</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>53.66097067875616</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>41.76643275423453</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.50323681175612</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>34.79444425176057</v>
+        <v>34.79444425176062</v>
       </c>
       <c r="T45" t="n">
-        <v>90.02450392044531</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>126.4799481895984</v>
+        <v>126.4799481895985</v>
       </c>
       <c r="V45" t="n">
         <v>138.8935463111786</v>
       </c>
       <c r="W45" t="n">
-        <v>146.3950181065809</v>
+        <v>146.395018106581</v>
       </c>
       <c r="X45" t="n">
-        <v>105.9929515720234</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>96.10001945378279</v>
+        <v>62.92686193474159</v>
       </c>
     </row>
     <row r="46">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.9348832029232</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>87.08201145320562</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>72.65572666504535</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>72.58216871792446</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>74.33162013769173</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.36664613662384</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.5339096708023</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.997889868345197</v>
+        <v>5.997889868345254</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>86.95994217528226</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>201.1205951614098</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>181.898496425919</v>
       </c>
       <c r="W46" t="n">
         <v>199.0760427466691</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>150.3184636933817</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.81053147177634</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>850.7229747175909</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="C11" t="n">
-        <v>661.5015615531329</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="D11" t="n">
-        <v>446.6725275335392</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8434935139455</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="F11" t="n">
         <v>17.01445949435182</v>
@@ -5041,52 +5041,52 @@
         <v>17.01445949435182</v>
       </c>
       <c r="J11" t="n">
-        <v>47.33456133477297</v>
+        <v>47.33456133477296</v>
       </c>
       <c r="K11" t="n">
-        <v>125.756571177865</v>
+        <v>125.7565711778648</v>
       </c>
       <c r="L11" t="n">
-        <v>247.0321541443474</v>
+        <v>247.0321541443472</v>
       </c>
       <c r="M11" t="n">
-        <v>402.5597418363925</v>
+        <v>402.5597418363922</v>
       </c>
       <c r="N11" t="n">
-        <v>563.602903942623</v>
+        <v>563.6029039426227</v>
       </c>
       <c r="O11" t="n">
-        <v>707.0034754622621</v>
+        <v>707.0034754622619</v>
       </c>
       <c r="P11" t="n">
-        <v>806.9668950064764</v>
+        <v>806.9668950064762</v>
       </c>
       <c r="Q11" t="n">
-        <v>850.722974717591</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="R11" t="n">
-        <v>850.7229747175909</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="S11" t="n">
-        <v>850.7229747175909</v>
+        <v>824.4815334881831</v>
       </c>
       <c r="T11" t="n">
-        <v>850.7229747175909</v>
+        <v>708.7589443223998</v>
       </c>
       <c r="U11" t="n">
-        <v>850.7229747175909</v>
+        <v>553.1990353574909</v>
       </c>
       <c r="V11" t="n">
-        <v>850.7229747175909</v>
+        <v>338.3700013378972</v>
       </c>
       <c r="W11" t="n">
-        <v>850.7229747175909</v>
+        <v>123.5409673183036</v>
       </c>
       <c r="X11" t="n">
-        <v>850.7229747175909</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="Y11" t="n">
-        <v>850.7229747175909</v>
+        <v>17.01445949435182</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.493307684657</v>
+        <v>177.4933076846565</v>
       </c>
       <c r="C12" t="n">
-        <v>126.890695887372</v>
+        <v>126.8906958873716</v>
       </c>
       <c r="D12" t="n">
-        <v>96.85334715147519</v>
+        <v>96.85334715147474</v>
       </c>
       <c r="E12" t="n">
-        <v>60.45847490498568</v>
+        <v>60.45847490498529</v>
       </c>
       <c r="F12" t="n">
-        <v>36.07828743074015</v>
+        <v>36.07828743073992</v>
       </c>
       <c r="G12" t="n">
         <v>17.01445949435182</v>
       </c>
       <c r="H12" t="n">
-        <v>37.47389147752939</v>
+        <v>37.47389147752944</v>
       </c>
       <c r="I12" t="n">
-        <v>37.47389147752939</v>
+        <v>103.3593319068948</v>
       </c>
       <c r="J12" t="n">
-        <v>70.04436914077198</v>
+        <v>109.1861763275124</v>
       </c>
       <c r="K12" t="n">
-        <v>130.8040104129329</v>
+        <v>169.9458175996733</v>
       </c>
       <c r="L12" t="n">
-        <v>242.6124980596555</v>
+        <v>281.7543052463958</v>
       </c>
       <c r="M12" t="n">
-        <v>385.669693789691</v>
+        <v>424.8115009764312</v>
       </c>
       <c r="N12" t="n">
-        <v>541.878807005965</v>
+        <v>581.0206141927051</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3367607923103</v>
+        <v>709.4785679790505</v>
       </c>
       <c r="P12" t="n">
-        <v>760.8691007009776</v>
+        <v>800.0109078877177</v>
       </c>
       <c r="Q12" t="n">
-        <v>788.9400947274605</v>
+        <v>828.0819019142006</v>
       </c>
       <c r="R12" t="n">
-        <v>850.7229747175909</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="S12" t="n">
-        <v>833.385199872107</v>
+        <v>833.3851998721067</v>
       </c>
       <c r="T12" t="n">
-        <v>760.2594859673455</v>
+        <v>760.2594859673453</v>
       </c>
       <c r="U12" t="n">
-        <v>650.3100909826317</v>
+        <v>650.3100909826311</v>
       </c>
       <c r="V12" t="n">
-        <v>527.8217079963215</v>
+        <v>527.8217079963209</v>
       </c>
       <c r="W12" t="n">
-        <v>397.7560807722311</v>
+        <v>397.7560807722306</v>
       </c>
       <c r="X12" t="n">
-        <v>308.5006217648656</v>
+        <v>308.5006217648651</v>
       </c>
       <c r="Y12" t="n">
-        <v>229.2380234829956</v>
+        <v>229.2380234829951</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>371.3294088407199</v>
+        <v>122.676515553979</v>
       </c>
       <c r="C13" t="n">
-        <v>301.1759095493319</v>
+        <v>122.676515553979</v>
       </c>
       <c r="D13" t="n">
-        <v>245.5944150944694</v>
+        <v>122.676515553979</v>
       </c>
       <c r="E13" t="n">
-        <v>190.0872215962947</v>
+        <v>122.676515553979</v>
       </c>
       <c r="F13" t="n">
-        <v>132.8129054518904</v>
+        <v>65.40219940957481</v>
       </c>
       <c r="G13" t="n">
-        <v>65.40219940957488</v>
+        <v>65.40219940957481</v>
       </c>
       <c r="H13" t="n">
         <v>17.01445949435182</v>
@@ -5199,52 +5199,52 @@
         <v>17.01445949435182</v>
       </c>
       <c r="J13" t="n">
-        <v>88.21484518847194</v>
+        <v>88.21484518847197</v>
       </c>
       <c r="K13" t="n">
-        <v>193.4094524237381</v>
+        <v>193.4094524237382</v>
       </c>
       <c r="L13" t="n">
-        <v>286.7961182091535</v>
+        <v>320.0378964347819</v>
       </c>
       <c r="M13" t="n">
-        <v>417.0953886364938</v>
+        <v>450.3371668621223</v>
       </c>
       <c r="N13" t="n">
-        <v>551.7354871731731</v>
+        <v>584.9772653988016</v>
       </c>
       <c r="O13" t="n">
-        <v>670.3796661846538</v>
+        <v>703.6214444102825</v>
       </c>
       <c r="P13" t="n">
-        <v>773.6627914780704</v>
+        <v>773.6627914780699</v>
       </c>
       <c r="Q13" t="n">
-        <v>839.2071390040685</v>
+        <v>839.2071390040682</v>
       </c>
       <c r="R13" t="n">
-        <v>850.7229747175909</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="S13" t="n">
-        <v>761.7561905094559</v>
+        <v>761.7561905094557</v>
       </c>
       <c r="T13" t="n">
-        <v>761.7561905094559</v>
+        <v>629.4716003324909</v>
       </c>
       <c r="U13" t="n">
-        <v>761.7561905094559</v>
+        <v>444.1276124469573</v>
       </c>
       <c r="V13" t="n">
-        <v>761.7561905094559</v>
+        <v>444.1276124469573</v>
       </c>
       <c r="W13" t="n">
-        <v>579.5462514301323</v>
+        <v>260.8488290207578</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5462514301323</v>
+        <v>126.8201254463637</v>
       </c>
       <c r="Y13" t="n">
-        <v>456.4858088893984</v>
+        <v>122.676515553979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="C14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="D14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="E14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="F14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="G14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="H14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="I14" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="J14" t="n">
-        <v>47.33456133477301</v>
+        <v>47.33456133477296</v>
       </c>
       <c r="K14" t="n">
         <v>125.756571177865</v>
       </c>
       <c r="L14" t="n">
-        <v>247.0321541443475</v>
+        <v>247.0321541443474</v>
       </c>
       <c r="M14" t="n">
         <v>402.5597418363925</v>
       </c>
       <c r="N14" t="n">
-        <v>563.6029039426232</v>
+        <v>563.602903942623</v>
       </c>
       <c r="O14" t="n">
-        <v>707.0034754622624</v>
+        <v>707.0034754622621</v>
       </c>
       <c r="P14" t="n">
-        <v>806.9668950064766</v>
+        <v>806.9668950064764</v>
       </c>
       <c r="Q14" t="n">
-        <v>850.7229747175912</v>
+        <v>850.722974717591</v>
       </c>
       <c r="R14" t="n">
-        <v>850.7229747175912</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="S14" t="n">
-        <v>850.7229747175912</v>
+        <v>824.4815334881831</v>
       </c>
       <c r="T14" t="n">
-        <v>850.7229747175912</v>
+        <v>708.7589443223998</v>
       </c>
       <c r="U14" t="n">
-        <v>850.7229747175912</v>
+        <v>553.1990353574909</v>
       </c>
       <c r="V14" t="n">
-        <v>850.7229747175912</v>
+        <v>338.3700013378972</v>
       </c>
       <c r="W14" t="n">
-        <v>635.8939406979974</v>
+        <v>123.5409673183036</v>
       </c>
       <c r="X14" t="n">
-        <v>421.0649066784036</v>
+        <v>123.5409673183036</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.2358726588099</v>
+        <v>17.01445949435182</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177.4933076846572</v>
+        <v>177.4933076846569</v>
       </c>
       <c r="C15" t="n">
-        <v>126.8906958873721</v>
+        <v>126.8906958873719</v>
       </c>
       <c r="D15" t="n">
-        <v>96.85334715147523</v>
+        <v>96.85334715147506</v>
       </c>
       <c r="E15" t="n">
-        <v>60.45847490498572</v>
+        <v>60.45847490498561</v>
       </c>
       <c r="F15" t="n">
-        <v>36.07828743074028</v>
+        <v>36.07828743074022</v>
       </c>
       <c r="G15" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="H15" t="n">
-        <v>37.47389147752939</v>
+        <v>37.47389147752944</v>
       </c>
       <c r="I15" t="n">
-        <v>103.3593319068947</v>
+        <v>64.21752472015388</v>
       </c>
       <c r="J15" t="n">
-        <v>109.1861763275124</v>
+        <v>70.04436914077152</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9458175996733</v>
+        <v>130.8040104129325</v>
       </c>
       <c r="L15" t="n">
-        <v>281.7543052463959</v>
+        <v>242.612498059655</v>
       </c>
       <c r="M15" t="n">
-        <v>424.8115009764314</v>
+        <v>385.6696937896905</v>
       </c>
       <c r="N15" t="n">
-        <v>581.0206141927054</v>
+        <v>541.8788070059645</v>
       </c>
       <c r="O15" t="n">
-        <v>709.4785679790507</v>
+        <v>670.3367607923099</v>
       </c>
       <c r="P15" t="n">
-        <v>800.0109078877181</v>
+        <v>760.8691007009772</v>
       </c>
       <c r="Q15" t="n">
-        <v>828.081901914201</v>
+        <v>788.9400947274602</v>
       </c>
       <c r="R15" t="n">
-        <v>850.7229747175913</v>
+        <v>850.7229747175905</v>
       </c>
       <c r="S15" t="n">
-        <v>833.3851998721075</v>
+        <v>833.3851998721067</v>
       </c>
       <c r="T15" t="n">
-        <v>760.259485967346</v>
+        <v>760.2594859673453</v>
       </c>
       <c r="U15" t="n">
-        <v>650.3100909826319</v>
+        <v>650.3100909826313</v>
       </c>
       <c r="V15" t="n">
-        <v>527.8217079963217</v>
+        <v>527.8217079963212</v>
       </c>
       <c r="W15" t="n">
-        <v>397.7560807722313</v>
+        <v>397.7560807722309</v>
       </c>
       <c r="X15" t="n">
-        <v>308.5006217648657</v>
+        <v>308.5006217648653</v>
       </c>
       <c r="Y15" t="n">
-        <v>229.2380234829957</v>
+        <v>229.2380234829954</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.0858583262301</v>
+        <v>380.5627587859432</v>
       </c>
       <c r="C16" t="n">
-        <v>139.9323590348421</v>
+        <v>310.4092594945553</v>
       </c>
       <c r="D16" t="n">
-        <v>139.9323590348421</v>
+        <v>254.8277650396928</v>
       </c>
       <c r="E16" t="n">
-        <v>84.42516553666734</v>
+        <v>199.3205715415181</v>
       </c>
       <c r="F16" t="n">
-        <v>84.42516553666734</v>
+        <v>142.0462553971139</v>
       </c>
       <c r="G16" t="n">
-        <v>17.01445949435183</v>
+        <v>74.63554935479847</v>
       </c>
       <c r="H16" t="n">
-        <v>17.01445949435183</v>
+        <v>26.24780943957548</v>
       </c>
       <c r="I16" t="n">
-        <v>17.01445949435183</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="J16" t="n">
-        <v>88.21484518847194</v>
+        <v>88.21484518847198</v>
       </c>
       <c r="K16" t="n">
-        <v>193.4094524237381</v>
+        <v>193.4094524237382</v>
       </c>
       <c r="L16" t="n">
-        <v>320.0378964347818</v>
+        <v>320.037896434782</v>
       </c>
       <c r="M16" t="n">
-        <v>450.3371668621221</v>
+        <v>450.3371668621223</v>
       </c>
       <c r="N16" t="n">
-        <v>584.9772653988014</v>
+        <v>584.9772653988016</v>
       </c>
       <c r="O16" t="n">
-        <v>703.6214444102822</v>
+        <v>670.3796661846533</v>
       </c>
       <c r="P16" t="n">
-        <v>773.6627914780707</v>
+        <v>773.6627914780699</v>
       </c>
       <c r="Q16" t="n">
-        <v>839.2071390040688</v>
+        <v>839.2071390040682</v>
       </c>
       <c r="R16" t="n">
-        <v>850.7229747175912</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="S16" t="n">
-        <v>761.7561905094562</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="T16" t="n">
-        <v>761.7561905094562</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="U16" t="n">
-        <v>576.4122026239227</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="V16" t="n">
-        <v>552.3314044900367</v>
+        <v>850.7229747175907</v>
       </c>
       <c r="W16" t="n">
-        <v>552.3314044900367</v>
+        <v>667.4441912913911</v>
       </c>
       <c r="X16" t="n">
-        <v>418.3027009156425</v>
+        <v>533.4154877169971</v>
       </c>
       <c r="Y16" t="n">
-        <v>295.2422583749086</v>
+        <v>465.7191588346217</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.215495226711</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="C17" t="n">
-        <v>841.215495226711</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="D17" t="n">
-        <v>841.215495226711</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="E17" t="n">
-        <v>626.3864612071175</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="F17" t="n">
-        <v>411.5574271875239</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="G17" t="n">
         <v>196.7283931679302</v>
@@ -5515,52 +5515,52 @@
         <v>17.01445949435182</v>
       </c>
       <c r="J17" t="n">
-        <v>47.3345613347729</v>
+        <v>47.33456133477301</v>
       </c>
       <c r="K17" t="n">
-        <v>125.7565711778649</v>
+        <v>125.756571177865</v>
       </c>
       <c r="L17" t="n">
         <v>247.0321541443474</v>
       </c>
       <c r="M17" t="n">
-        <v>402.5597418363923</v>
+        <v>402.5597418363924</v>
       </c>
       <c r="N17" t="n">
         <v>563.602903942623</v>
       </c>
       <c r="O17" t="n">
-        <v>707.0034754622621</v>
+        <v>707.003475462262</v>
       </c>
       <c r="P17" t="n">
-        <v>806.9668950064762</v>
+        <v>806.9668950064764</v>
       </c>
       <c r="Q17" t="n">
-        <v>850.7229747175907</v>
+        <v>850.722974717591</v>
       </c>
       <c r="R17" t="n">
-        <v>850.7229747175907</v>
+        <v>850.722974717591</v>
       </c>
       <c r="S17" t="n">
-        <v>850.7229747175907</v>
+        <v>850.722974717591</v>
       </c>
       <c r="T17" t="n">
-        <v>850.7229747175907</v>
+        <v>761.2418267812152</v>
       </c>
       <c r="U17" t="n">
-        <v>850.7229747175907</v>
+        <v>761.2418267812152</v>
       </c>
       <c r="V17" t="n">
-        <v>850.7229747175907</v>
+        <v>546.4127927616215</v>
       </c>
       <c r="W17" t="n">
-        <v>850.7229747175907</v>
+        <v>331.5837587420278</v>
       </c>
       <c r="X17" t="n">
-        <v>850.7229747175907</v>
+        <v>331.5837587420278</v>
       </c>
       <c r="Y17" t="n">
-        <v>850.7229747175907</v>
+        <v>196.7283931679302</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.1458324319536</v>
+        <v>143.2421660480303</v>
       </c>
       <c r="C18" t="n">
-        <v>127.7846618640762</v>
+        <v>118.8809954801528</v>
       </c>
       <c r="D18" t="n">
-        <v>123.9887543575868</v>
+        <v>115.0850879736635</v>
       </c>
       <c r="E18" t="n">
-        <v>113.8353233405049</v>
+        <v>104.9316569565815</v>
       </c>
       <c r="F18" t="n">
-        <v>96.19123681141843</v>
+        <v>104.9316569565815</v>
       </c>
       <c r="G18" t="n">
-        <v>96.19123681141843</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="H18" t="n">
         <v>17.01445949435182</v>
@@ -5594,52 +5594,52 @@
         <v>17.01445949435182</v>
       </c>
       <c r="J18" t="n">
-        <v>22.84130391496944</v>
+        <v>22.84130391496946</v>
       </c>
       <c r="K18" t="n">
-        <v>83.60094518713038</v>
+        <v>83.60094518713043</v>
       </c>
       <c r="L18" t="n">
-        <v>195.4094328338529</v>
+        <v>195.409432833853</v>
       </c>
       <c r="M18" t="n">
-        <v>338.4666285638883</v>
+        <v>338.4666285638885</v>
       </c>
       <c r="N18" t="n">
-        <v>494.6757417801622</v>
+        <v>494.6757417801624</v>
       </c>
       <c r="O18" t="n">
-        <v>623.1336955665075</v>
+        <v>623.1336955665078</v>
       </c>
       <c r="P18" t="n">
-        <v>713.6660354751748</v>
+        <v>713.666035475175</v>
       </c>
       <c r="Q18" t="n">
-        <v>741.7370295016576</v>
+        <v>741.737029501658</v>
       </c>
       <c r="R18" t="n">
-        <v>741.7370295016576</v>
+        <v>741.737029501658</v>
       </c>
       <c r="S18" t="n">
-        <v>624.347636013551</v>
+        <v>741.737029501658</v>
       </c>
       <c r="T18" t="n">
-        <v>577.463363338197</v>
+        <v>568.5596969542737</v>
       </c>
       <c r="U18" t="n">
-        <v>493.7554095828905</v>
+        <v>484.8517431989672</v>
       </c>
       <c r="V18" t="n">
-        <v>397.5084678259879</v>
+        <v>388.6048014420646</v>
       </c>
       <c r="W18" t="n">
-        <v>293.6842818313051</v>
+        <v>284.7806154473818</v>
       </c>
       <c r="X18" t="n">
-        <v>230.6702640533471</v>
+        <v>221.7665976694237</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.6491070008846</v>
+        <v>168.7454406169613</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.5821342805106</v>
+        <v>184.6150091955073</v>
       </c>
       <c r="C19" t="n">
-        <v>109.6700762185302</v>
+        <v>140.7029511335269</v>
       </c>
       <c r="D19" t="n">
-        <v>80.33002299307525</v>
+        <v>111.362897908072</v>
       </c>
       <c r="E19" t="n">
-        <v>80.33002299307525</v>
+        <v>111.362897908072</v>
       </c>
       <c r="F19" t="n">
         <v>80.33002299307525</v>
@@ -5670,55 +5670,55 @@
         <v>17.01445949435182</v>
       </c>
       <c r="I19" t="n">
-        <v>33.6840897619804</v>
+        <v>33.68408976198041</v>
       </c>
       <c r="J19" t="n">
-        <v>130.6037120050429</v>
+        <v>96.77883053245858</v>
       </c>
       <c r="K19" t="n">
-        <v>137.7377278086745</v>
+        <v>103.9128463360902</v>
       </c>
       <c r="L19" t="n">
-        <v>290.0854083686606</v>
+        <v>132.4806989154994</v>
       </c>
       <c r="M19" t="n">
-        <v>322.3240873643663</v>
+        <v>288.499205891782</v>
       </c>
       <c r="N19" t="n">
-        <v>482.6834224499879</v>
+        <v>448.8585409774037</v>
       </c>
       <c r="O19" t="n">
-        <v>627.0468380104111</v>
+        <v>593.2219565378268</v>
       </c>
       <c r="P19" t="n">
-        <v>756.04919985277</v>
+        <v>722.2243183801858</v>
       </c>
       <c r="Q19" t="n">
-        <v>813.4879024551259</v>
+        <v>813.4879024551262</v>
       </c>
       <c r="R19" t="n">
-        <v>850.7229747175907</v>
+        <v>850.722974717591</v>
       </c>
       <c r="S19" t="n">
-        <v>787.9976317388632</v>
+        <v>850.722974717591</v>
       </c>
       <c r="T19" t="n">
-        <v>681.954482791306</v>
+        <v>744.6798257700336</v>
       </c>
       <c r="U19" t="n">
-        <v>522.8519361351799</v>
+        <v>585.5772791139076</v>
       </c>
       <c r="V19" t="n">
-        <v>383.1656508280345</v>
+        <v>445.8909938067621</v>
       </c>
       <c r="W19" t="n">
-        <v>226.1283086312424</v>
+        <v>288.8536516099701</v>
       </c>
       <c r="X19" t="n">
-        <v>212.4970930997816</v>
+        <v>281.4340105068337</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.4970930997816</v>
+        <v>184.6150091955073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>850.722974717591</v>
+        <v>421.0649066784036</v>
       </c>
       <c r="C20" t="n">
-        <v>850.722974717591</v>
+        <v>206.2358726588099</v>
       </c>
       <c r="D20" t="n">
-        <v>841.2154952267113</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="E20" t="n">
-        <v>626.3864612071176</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="F20" t="n">
-        <v>411.5574271875239</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="G20" t="n">
-        <v>196.7283931679302</v>
+        <v>17.01445949435182</v>
       </c>
       <c r="H20" t="n">
         <v>17.01445949435182</v>
@@ -5794,10 +5794,10 @@
         <v>850.722974717591</v>
       </c>
       <c r="X20" t="n">
-        <v>850.722974717591</v>
+        <v>635.8939406979973</v>
       </c>
       <c r="Y20" t="n">
-        <v>850.722974717591</v>
+        <v>421.0649066784036</v>
       </c>
     </row>
     <row r="21">
@@ -5858,10 +5858,10 @@
         <v>741.737029501658</v>
       </c>
       <c r="S21" t="n">
-        <v>741.737029501658</v>
+        <v>624.3476360135512</v>
       </c>
       <c r="T21" t="n">
-        <v>568.5596969542737</v>
+        <v>480.642499492044</v>
       </c>
       <c r="U21" t="n">
         <v>396.9345457367374</v>
@@ -5916,16 +5916,16 @@
         <v>227.6926743166671</v>
       </c>
       <c r="L22" t="n">
-        <v>256.2605268960763</v>
+        <v>380.0403548766532</v>
       </c>
       <c r="M22" t="n">
-        <v>288.499205891782</v>
+        <v>536.0588618529358</v>
       </c>
       <c r="N22" t="n">
-        <v>448.8585409774037</v>
+        <v>696.4181969385575</v>
       </c>
       <c r="O22" t="n">
-        <v>593.2219565378268</v>
+        <v>717.0017845184037</v>
       </c>
       <c r="P22" t="n">
         <v>722.2243183801858</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.9257334975657</v>
+        <v>628.1513895968149</v>
       </c>
       <c r="C23" t="n">
-        <v>343.9257334975657</v>
+        <v>628.1513895968149</v>
       </c>
       <c r="D23" t="n">
-        <v>343.9257334975657</v>
+        <v>369.0033206855129</v>
       </c>
       <c r="E23" t="n">
-        <v>67.63526848614055</v>
+        <v>369.0033206855129</v>
       </c>
       <c r="F23" t="n">
-        <v>67.63526848614055</v>
+        <v>369.0033206855129</v>
       </c>
       <c r="G23" t="n">
-        <v>22.14249368432356</v>
+        <v>89.4263802268818</v>
       </c>
       <c r="H23" t="n">
-        <v>22.14249368432356</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="I23" t="n">
-        <v>77.03010188383161</v>
+        <v>55.91994518950017</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3502037242528</v>
+        <v>86.24004702992131</v>
       </c>
       <c r="K23" t="n">
-        <v>185.7722135673448</v>
+        <v>164.6620568730133</v>
       </c>
       <c r="L23" t="n">
-        <v>307.0477965338272</v>
+        <v>285.9376398394958</v>
       </c>
       <c r="M23" t="n">
-        <v>462.5753842258722</v>
+        <v>441.4652275315408</v>
       </c>
       <c r="N23" t="n">
-        <v>623.6185463321028</v>
+        <v>602.5083896377714</v>
       </c>
       <c r="O23" t="n">
-        <v>767.019117851742</v>
+        <v>745.9089611574105</v>
       </c>
       <c r="P23" t="n">
-        <v>866.9825373959562</v>
+        <v>845.8723807016248</v>
       </c>
       <c r="Q23" t="n">
-        <v>1013.408288393315</v>
+        <v>1013.408288393316</v>
       </c>
       <c r="R23" t="n">
-        <v>1107.124684216178</v>
+        <v>1107.124684216179</v>
       </c>
       <c r="S23" t="n">
-        <v>1107.124684216178</v>
+        <v>1107.124684216179</v>
       </c>
       <c r="T23" t="n">
-        <v>1017.643536279802</v>
+        <v>1107.124684216179</v>
       </c>
       <c r="U23" t="n">
-        <v>888.3250685443008</v>
+        <v>1107.124684216179</v>
       </c>
       <c r="V23" t="n">
-        <v>888.3250685443008</v>
+        <v>891.3109347917277</v>
       </c>
       <c r="W23" t="n">
-        <v>888.3250685443008</v>
+        <v>891.3109347917277</v>
       </c>
       <c r="X23" t="n">
-        <v>888.3250685443008</v>
+        <v>628.1513895968149</v>
       </c>
       <c r="Y23" t="n">
-        <v>618.1274193369322</v>
+        <v>628.1513895968149</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.3702002380022</v>
+        <v>60.4530027757723</v>
       </c>
       <c r="C24" t="n">
-        <v>124.0090296701248</v>
+        <v>36.09183220789485</v>
       </c>
       <c r="D24" t="n">
-        <v>120.2131221636355</v>
+        <v>32.29592470140553</v>
       </c>
       <c r="E24" t="n">
-        <v>101.3192710013902</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="F24" t="n">
-        <v>101.3192710013902</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="G24" t="n">
-        <v>101.3192710013902</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="H24" t="n">
-        <v>22.14249368432356</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="I24" t="n">
-        <v>22.14249368432356</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="J24" t="n">
-        <v>27.96933810494121</v>
+        <v>27.96933810494123</v>
       </c>
       <c r="K24" t="n">
-        <v>88.72897937710218</v>
+        <v>88.72897937710219</v>
       </c>
       <c r="L24" t="n">
         <v>200.5374670238247</v>
@@ -6104,16 +6104,16 @@
         <v>489.9797773889392</v>
       </c>
       <c r="V24" t="n">
-        <v>393.7328356320365</v>
+        <v>305.8156381698066</v>
       </c>
       <c r="W24" t="n">
-        <v>289.9086496373537</v>
+        <v>201.9914521751238</v>
       </c>
       <c r="X24" t="n">
-        <v>226.8946318593957</v>
+        <v>138.9774343971658</v>
       </c>
       <c r="Y24" t="n">
-        <v>173.8734748069332</v>
+        <v>85.95627734470332</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>219.0087956542462</v>
+        <v>219.0087956542463</v>
       </c>
       <c r="C25" t="n">
-        <v>175.0967375922658</v>
+        <v>175.0967375922659</v>
       </c>
       <c r="D25" t="n">
-        <v>145.7566843668108</v>
+        <v>145.7566843668109</v>
       </c>
       <c r="E25" t="n">
         <v>116.4909320980437</v>
       </c>
       <c r="F25" t="n">
-        <v>85.45805718304698</v>
+        <v>85.45805718304699</v>
       </c>
       <c r="G25" t="n">
-        <v>44.28879237013903</v>
+        <v>44.28879237013905</v>
       </c>
       <c r="H25" t="n">
-        <v>22.14249368432356</v>
+        <v>22.14249368432358</v>
       </c>
       <c r="I25" t="n">
-        <v>38.81212395195216</v>
+        <v>38.81212395195217</v>
       </c>
       <c r="J25" t="n">
         <v>135.7317461950146</v>
@@ -6162,25 +6162,25 @@
         <v>735.3711126011135</v>
       </c>
       <c r="O25" t="n">
-        <v>849.6236660364139</v>
+        <v>879.7345281615367</v>
       </c>
       <c r="P25" t="n">
-        <v>978.6260278787728</v>
+        <v>978.6260278787737</v>
       </c>
       <c r="Q25" t="n">
-        <v>1069.889611953713</v>
+        <v>1069.889611953714</v>
       </c>
       <c r="R25" t="n">
-        <v>1107.124684216178</v>
+        <v>1107.124684216179</v>
       </c>
       <c r="S25" t="n">
-        <v>1044.399341237451</v>
+        <v>1044.399341237452</v>
       </c>
       <c r="T25" t="n">
-        <v>938.3561922898933</v>
+        <v>938.3561922898942</v>
       </c>
       <c r="U25" t="n">
-        <v>779.2536456337674</v>
+        <v>779.2536456337677</v>
       </c>
       <c r="V25" t="n">
         <v>639.5673603266222</v>
@@ -6192,7 +6192,7 @@
         <v>374.7427557848436</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.9237544735171</v>
+        <v>277.9237544735172</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>496.7293161899976</v>
+        <v>620.9505971329659</v>
       </c>
       <c r="C26" t="n">
-        <v>496.7293161899976</v>
+        <v>341.9030022581107</v>
       </c>
       <c r="D26" t="n">
-        <v>496.7293161899976</v>
+        <v>341.9030022581107</v>
       </c>
       <c r="E26" t="n">
-        <v>341.9030022581105</v>
+        <v>341.9030022581107</v>
       </c>
       <c r="F26" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="G26" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="H26" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I26" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J26" t="n">
-        <v>55.41157494905935</v>
+        <v>124.3037947301282</v>
       </c>
       <c r="K26" t="n">
-        <v>133.8335847921514</v>
+        <v>202.7258045732203</v>
       </c>
       <c r="L26" t="n">
         <v>324.0013875397027</v>
       </c>
       <c r="M26" t="n">
-        <v>479.5289752317477</v>
+        <v>629.7971953652197</v>
       </c>
       <c r="N26" t="n">
-        <v>640.5721373379783</v>
+        <v>790.8403574714504</v>
       </c>
       <c r="O26" t="n">
-        <v>783.9727088576175</v>
+        <v>1003.133148772158</v>
       </c>
       <c r="P26" t="n">
-        <v>883.9361284018318</v>
+        <v>1171.988788097442</v>
       </c>
       <c r="Q26" t="n">
-        <v>1114.252428956721</v>
+        <v>1215.744867808556</v>
       </c>
       <c r="R26" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="S26" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="T26" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="U26" t="n">
-        <v>1069.253138722316</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="V26" t="n">
-        <v>797.4373403237723</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="W26" t="n">
-        <v>496.7293161899976</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="X26" t="n">
-        <v>496.7293161899976</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="Y26" t="n">
-        <v>496.7293161899976</v>
+        <v>937.7621262824383</v>
       </c>
     </row>
     <row r="27">
@@ -6284,73 +6284,73 @@
         <v>343.2591264414968</v>
       </c>
       <c r="C27" t="n">
-        <v>262.8959068995268</v>
+        <v>262.8959068995269</v>
       </c>
       <c r="D27" t="n">
-        <v>203.097950418945</v>
+        <v>203.0979504189452</v>
       </c>
       <c r="E27" t="n">
-        <v>136.9424704277706</v>
+        <v>136.9424704277708</v>
       </c>
       <c r="F27" t="n">
-        <v>82.80167520884024</v>
+        <v>82.80167520884035</v>
       </c>
       <c r="G27" t="n">
-        <v>33.97723952776697</v>
+        <v>33.97723952776698</v>
       </c>
       <c r="H27" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I27" t="n">
-        <v>77.44674578371242</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J27" t="n">
-        <v>266.4901384838693</v>
+        <v>30.91831752925586</v>
       </c>
       <c r="K27" t="n">
-        <v>327.2497797560303</v>
+        <v>91.67795880141682</v>
       </c>
       <c r="L27" t="n">
-        <v>439.0582674027528</v>
+        <v>265.2273956504679</v>
       </c>
       <c r="M27" t="n">
-        <v>582.1154631327884</v>
+        <v>575.7343753698658</v>
       </c>
       <c r="N27" t="n">
-        <v>768.2212000276432</v>
+        <v>800.8357083672087</v>
       </c>
       <c r="O27" t="n">
-        <v>965.5713735950575</v>
+        <v>998.1858819346229</v>
       </c>
       <c r="P27" t="n">
-        <v>1124.995933284794</v>
+        <v>1157.610441624359</v>
       </c>
       <c r="Q27" t="n">
-        <v>1221.959147092345</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="R27" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="S27" t="n">
-        <v>1207.475272841741</v>
+        <v>1207.475272841742</v>
       </c>
       <c r="T27" t="n">
-        <v>1104.588951192295</v>
+        <v>1104.588951192296</v>
       </c>
       <c r="U27" t="n">
-        <v>964.878948462896</v>
+        <v>964.8789484628963</v>
       </c>
       <c r="V27" t="n">
-        <v>812.629957731901</v>
+        <v>812.6299577319012</v>
       </c>
       <c r="W27" t="n">
         <v>652.8037227631257</v>
       </c>
       <c r="X27" t="n">
-        <v>533.7876560110752</v>
+        <v>533.7876560110753</v>
       </c>
       <c r="Y27" t="n">
-        <v>424.7644499845203</v>
+        <v>424.7644499845204</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.3185605819263</v>
+        <v>348.2246310776707</v>
       </c>
       <c r="C28" t="n">
-        <v>314.4044535458534</v>
+        <v>248.3105240415977</v>
       </c>
       <c r="D28" t="n">
-        <v>229.0623513463059</v>
+        <v>162.9684218420503</v>
       </c>
       <c r="E28" t="n">
-        <v>200.4111345555466</v>
+        <v>142.2337784584548</v>
       </c>
       <c r="F28" t="n">
-        <v>200.4111345555466</v>
+        <v>142.2337784584548</v>
       </c>
       <c r="G28" t="n">
-        <v>103.2398207685462</v>
+        <v>142.2337784584548</v>
       </c>
       <c r="H28" t="n">
-        <v>25.0914731086382</v>
+        <v>64.08543079854685</v>
       </c>
       <c r="I28" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J28" t="n">
         <v>119.0712982510066</v>
       </c>
       <c r="K28" t="n">
-        <v>359.9526065783884</v>
+        <v>195.0975338357071</v>
       </c>
       <c r="L28" t="n">
-        <v>457.4126789388665</v>
+        <v>505.604513555105</v>
       </c>
       <c r="M28" t="n">
-        <v>512.1447480333446</v>
+        <v>544.1517165167841</v>
       </c>
       <c r="N28" t="n">
-        <v>814.0795370329761</v>
+        <v>649.6234434028977</v>
       </c>
       <c r="O28" t="n">
-        <v>903.5553443938912</v>
+        <v>960.1304231222956</v>
       </c>
       <c r="P28" t="n">
-        <v>1117.282014637878</v>
+        <v>1173.857093366283</v>
       </c>
       <c r="Q28" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="R28" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="S28" t="n">
-        <v>1254.57365543191</v>
+        <v>1135.846263479091</v>
       </c>
       <c r="T28" t="n">
-        <v>1254.57365543191</v>
+        <v>1135.846263479091</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.57365543191</v>
+        <v>920.7416678488722</v>
       </c>
       <c r="V28" t="n">
-        <v>1058.885321150672</v>
+        <v>725.0533335676342</v>
       </c>
       <c r="W28" t="n">
-        <v>845.8459299797876</v>
+        <v>512.0139423967497</v>
       </c>
       <c r="X28" t="n">
-        <v>682.0566186607085</v>
+        <v>348.2246310776707</v>
       </c>
       <c r="Y28" t="n">
-        <v>529.2355683752897</v>
+        <v>348.2246310776707</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25.0914731086382</v>
+        <v>248.1370190094009</v>
       </c>
       <c r="C29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="D29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="E29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="F29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="G29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="H29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I29" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J29" t="n">
         <v>124.3037947301282</v>
       </c>
       <c r="K29" t="n">
-        <v>202.7258045732203</v>
+        <v>434.8107744495261</v>
       </c>
       <c r="L29" t="n">
-        <v>392.8936073207716</v>
+        <v>617.9561893942555</v>
       </c>
       <c r="M29" t="n">
-        <v>548.4211950128166</v>
+        <v>806.4104225507122</v>
       </c>
       <c r="N29" t="n">
-        <v>709.4643571190472</v>
+        <v>967.4535846569428</v>
       </c>
       <c r="O29" t="n">
-        <v>852.8649286386864</v>
+        <v>1110.854156176582</v>
       </c>
       <c r="P29" t="n">
-        <v>952.8283481829006</v>
+        <v>1210.817575720796</v>
       </c>
       <c r="Q29" t="n">
-        <v>1215.744867808555</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="R29" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="S29" t="n">
-        <v>1254.57365543191</v>
+        <v>1198.571606457818</v>
       </c>
       <c r="T29" t="n">
-        <v>1254.57365543191</v>
+        <v>1198.571606457818</v>
       </c>
       <c r="U29" t="n">
-        <v>1254.57365543191</v>
+        <v>1198.571606457818</v>
       </c>
       <c r="V29" t="n">
-        <v>982.7578570333662</v>
+        <v>1198.571606457818</v>
       </c>
       <c r="W29" t="n">
-        <v>682.0498328995916</v>
+        <v>1198.571606457818</v>
       </c>
       <c r="X29" t="n">
-        <v>365.2383037501193</v>
+        <v>881.7600773083458</v>
       </c>
       <c r="Y29" t="n">
-        <v>48.42677460064704</v>
+        <v>564.9485481588733</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>82.80167520884035</v>
       </c>
       <c r="G30" t="n">
-        <v>33.97723952776697</v>
+        <v>33.97723952776698</v>
       </c>
       <c r="H30" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I30" t="n">
-        <v>61.80854188743785</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J30" t="n">
-        <v>136.5276060891244</v>
+        <v>99.81053731032475</v>
       </c>
       <c r="K30" t="n">
-        <v>249.258587551046</v>
+        <v>229.4623983635546</v>
       </c>
       <c r="L30" t="n">
-        <v>429.9592949788374</v>
+        <v>341.2708860102771</v>
       </c>
       <c r="M30" t="n">
-        <v>573.0164907088729</v>
+        <v>553.2203015213815</v>
       </c>
       <c r="N30" t="n">
-        <v>798.1178237062157</v>
+        <v>778.3216345187244</v>
       </c>
       <c r="O30" t="n">
-        <v>995.46799727363</v>
+        <v>906.7795883050698</v>
       </c>
       <c r="P30" t="n">
-        <v>1124.995933284794</v>
+        <v>997.311928213737</v>
       </c>
       <c r="Q30" t="n">
         <v>1221.959147092346</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>314.1309727450713</v>
+        <v>300.3252415916195</v>
       </c>
       <c r="C31" t="n">
-        <v>214.2168657089983</v>
+        <v>200.4111345555466</v>
       </c>
       <c r="D31" t="n">
-        <v>214.2168657089983</v>
+        <v>200.4111345555466</v>
       </c>
       <c r="E31" t="n">
-        <v>214.2168657089983</v>
+        <v>200.4111345555466</v>
       </c>
       <c r="F31" t="n">
-        <v>214.2168657089983</v>
+        <v>200.4111345555466</v>
       </c>
       <c r="G31" t="n">
-        <v>142.2337784584548</v>
+        <v>103.2398207685462</v>
       </c>
       <c r="H31" t="n">
-        <v>64.08543079854684</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I31" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J31" t="n">
         <v>119.0712982510066</v>
       </c>
       <c r="K31" t="n">
-        <v>291.0603867973195</v>
+        <v>359.9526065783884</v>
       </c>
       <c r="L31" t="n">
-        <v>570.5541684375053</v>
+        <v>670.4595862977864</v>
       </c>
       <c r="M31" t="n">
-        <v>846.3922497090002</v>
+        <v>702.6982652934921</v>
       </c>
       <c r="N31" t="n">
-        <v>882.971756814045</v>
+        <v>846.1029821705071</v>
       </c>
       <c r="O31" t="n">
-        <v>903.5553443938912</v>
+        <v>935.5787895314222</v>
       </c>
       <c r="P31" t="n">
-        <v>1117.282014637878</v>
+        <v>1218.197679556478</v>
       </c>
       <c r="Q31" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="R31" t="n">
-        <v>1254.57365543191</v>
+        <v>1236.562701511858</v>
       </c>
       <c r="S31" t="n">
-        <v>1254.57365543191</v>
+        <v>1236.562701511858</v>
       </c>
       <c r="T31" t="n">
-        <v>1254.57365543191</v>
+        <v>1074.517503590209</v>
       </c>
       <c r="U31" t="n">
-        <v>1039.469059801692</v>
+        <v>859.4129079599901</v>
       </c>
       <c r="V31" t="n">
-        <v>843.7807255204536</v>
+        <v>859.4129079599901</v>
       </c>
       <c r="W31" t="n">
-        <v>630.7413343495691</v>
+        <v>646.3735167891056</v>
       </c>
       <c r="X31" t="n">
-        <v>466.9520230304901</v>
+        <v>568.0632996704018</v>
       </c>
       <c r="Y31" t="n">
-        <v>314.1309727450713</v>
+        <v>415.242249384983</v>
       </c>
     </row>
     <row r="32">
@@ -6676,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1125.255187696409</v>
+        <v>851.0535018570429</v>
       </c>
       <c r="C32" t="n">
-        <v>1125.255187696409</v>
+        <v>584.1710602320038</v>
       </c>
       <c r="D32" t="n">
-        <v>866.1071187851068</v>
+        <v>584.1710602320038</v>
       </c>
       <c r="E32" t="n">
-        <v>600.7975228732266</v>
+        <v>307.8805952205787</v>
       </c>
       <c r="F32" t="n">
-        <v>310.1961442752346</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="G32" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="H32" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97908130814623</v>
+        <v>79.97908130814625</v>
       </c>
       <c r="J32" t="n">
-        <v>110.2991831485674</v>
+        <v>234.0790111291443</v>
       </c>
       <c r="K32" t="n">
-        <v>188.7211929916594</v>
+        <v>312.5010209722363</v>
       </c>
       <c r="L32" t="n">
-        <v>403.3231788975127</v>
+        <v>433.7766039387188</v>
       </c>
       <c r="M32" t="n">
-        <v>558.8507665895577</v>
+        <v>713.0840196113408</v>
       </c>
       <c r="N32" t="n">
-        <v>719.8939286957883</v>
+        <v>874.1271817175714</v>
       </c>
       <c r="O32" t="n">
-        <v>863.2945002154274</v>
+        <v>1017.527753237211</v>
       </c>
       <c r="P32" t="n">
-        <v>1087.037747740219</v>
+        <v>1117.491172781425</v>
       </c>
       <c r="Q32" t="n">
-        <v>1254.57365543191</v>
+        <v>1161.247252492539</v>
       </c>
       <c r="R32" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="S32" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="T32" t="n">
-        <v>1254.57365543191</v>
+        <v>1254.573655431911</v>
       </c>
       <c r="U32" t="n">
         <v>1125.255187696409</v>
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>182.5174287790981</v>
+        <v>96.23041909659672</v>
       </c>
       <c r="C33" t="n">
-        <v>158.1562582112207</v>
+        <v>71.86924852871927</v>
       </c>
       <c r="D33" t="n">
-        <v>154.3603507047314</v>
+        <v>68.07334102222994</v>
       </c>
       <c r="E33" t="n">
-        <v>144.2069196876494</v>
+        <v>57.919910005148</v>
       </c>
       <c r="F33" t="n">
-        <v>144.2069196876494</v>
+        <v>57.919910005148</v>
       </c>
       <c r="G33" t="n">
-        <v>25.0914731086382</v>
+        <v>57.919910005148</v>
       </c>
       <c r="H33" t="n">
-        <v>25.0914731086382</v>
+        <v>57.919910005148</v>
       </c>
       <c r="I33" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J33" t="n">
-        <v>30.91831752925584</v>
+        <v>30.91831752925586</v>
       </c>
       <c r="K33" t="n">
         <v>91.67795880141682</v>
@@ -6806,25 +6806,25 @@
         <v>749.8140431159444</v>
       </c>
       <c r="S33" t="n">
-        <v>749.8140431159444</v>
+        <v>694.7252825502244</v>
       </c>
       <c r="T33" t="n">
-        <v>607.8349596853417</v>
+        <v>521.5479500028401</v>
       </c>
       <c r="U33" t="n">
-        <v>524.1270059300351</v>
+        <v>437.8399962475336</v>
       </c>
       <c r="V33" t="n">
-        <v>427.8800641731324</v>
+        <v>341.593054490631</v>
       </c>
       <c r="W33" t="n">
-        <v>324.0558781784496</v>
+        <v>237.7688684959482</v>
       </c>
       <c r="X33" t="n">
-        <v>261.0418604004916</v>
+        <v>174.7548507179902</v>
       </c>
       <c r="Y33" t="n">
-        <v>208.0207033480291</v>
+        <v>121.7336936655277</v>
       </c>
     </row>
     <row r="34">
@@ -6846,34 +6846,34 @@
         <v>119.4399115223584</v>
       </c>
       <c r="F34" t="n">
-        <v>88.40703660736163</v>
+        <v>88.40703660736165</v>
       </c>
       <c r="G34" t="n">
-        <v>47.23777179445368</v>
+        <v>47.23777179445369</v>
       </c>
       <c r="H34" t="n">
-        <v>25.0914731086382</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76110337626679</v>
+        <v>25.09147310863822</v>
       </c>
       <c r="J34" t="n">
-        <v>138.6807256193293</v>
+        <v>122.0110953517007</v>
       </c>
       <c r="K34" t="n">
-        <v>269.5945694035378</v>
+        <v>252.9249391359092</v>
       </c>
       <c r="L34" t="n">
-        <v>421.9422499635239</v>
+        <v>405.2726196958953</v>
       </c>
       <c r="M34" t="n">
-        <v>577.9607569398065</v>
+        <v>561.2911266721779</v>
       </c>
       <c r="N34" t="n">
-        <v>738.3200920254282</v>
+        <v>721.6504617577996</v>
       </c>
       <c r="O34" t="n">
-        <v>852.5726454607288</v>
+        <v>866.0138773182227</v>
       </c>
       <c r="P34" t="n">
         <v>981.5750073030878</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>411.5574271875238</v>
+        <v>635.8939406979974</v>
       </c>
       <c r="C35" t="n">
-        <v>411.5574271875238</v>
+        <v>635.8939406979974</v>
       </c>
       <c r="D35" t="n">
-        <v>411.5574271875238</v>
+        <v>635.8939406979974</v>
       </c>
       <c r="E35" t="n">
-        <v>411.5574271875238</v>
+        <v>626.3864612071178</v>
       </c>
       <c r="F35" t="n">
-        <v>411.5574271875238</v>
+        <v>411.557427187524</v>
       </c>
       <c r="G35" t="n">
         <v>196.7283931679302</v>
       </c>
       <c r="H35" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="I35" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="J35" t="n">
         <v>47.33456133477296</v>
       </c>
       <c r="K35" t="n">
-        <v>125.756571177865</v>
+        <v>125.7565711778651</v>
       </c>
       <c r="L35" t="n">
-        <v>247.0321541443474</v>
+        <v>247.0321541443475</v>
       </c>
       <c r="M35" t="n">
         <v>402.5597418363925</v>
       </c>
       <c r="N35" t="n">
-        <v>563.602903942623</v>
+        <v>563.6029039426231</v>
       </c>
       <c r="O35" t="n">
-        <v>707.0034754622621</v>
+        <v>707.0034754622624</v>
       </c>
       <c r="P35" t="n">
-        <v>806.9668950064764</v>
+        <v>806.9668950064766</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.722974717591</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="R35" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="S35" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="T35" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="U35" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="V35" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="W35" t="n">
-        <v>841.2154952267109</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="X35" t="n">
-        <v>626.3864612071173</v>
+        <v>635.8939406979974</v>
       </c>
       <c r="Y35" t="n">
-        <v>411.5574271875238</v>
+        <v>635.8939406979974</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.32496858580053</v>
+        <v>214.4464653543407</v>
       </c>
       <c r="C36" t="n">
-        <v>30.96379801792308</v>
+        <v>190.0852947864632</v>
       </c>
       <c r="D36" t="n">
-        <v>27.16789051143375</v>
+        <v>186.2893872799739</v>
       </c>
       <c r="E36" t="n">
-        <v>17.01445949435181</v>
+        <v>49.8428963908616</v>
       </c>
       <c r="F36" t="n">
-        <v>17.01445949435181</v>
+        <v>49.8428963908616</v>
       </c>
       <c r="G36" t="n">
-        <v>17.01445949435181</v>
+        <v>49.8428963908616</v>
       </c>
       <c r="H36" t="n">
-        <v>17.01445949435181</v>
+        <v>49.8428963908616</v>
       </c>
       <c r="I36" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="J36" t="n">
-        <v>22.84130391496945</v>
+        <v>22.84130391496947</v>
       </c>
       <c r="K36" t="n">
-        <v>83.60094518713042</v>
+        <v>83.60094518713043</v>
       </c>
       <c r="L36" t="n">
-        <v>195.4094328338529</v>
+        <v>195.409432833853</v>
       </c>
       <c r="M36" t="n">
-        <v>338.4666285638884</v>
+        <v>338.4666285638885</v>
       </c>
       <c r="N36" t="n">
         <v>494.6757417801624</v>
@@ -7043,25 +7043,25 @@
         <v>741.737029501658</v>
       </c>
       <c r="S36" t="n">
-        <v>624.3476360135512</v>
+        <v>741.737029501658</v>
       </c>
       <c r="T36" t="n">
-        <v>577.4633633381973</v>
+        <v>639.7639962605841</v>
       </c>
       <c r="U36" t="n">
-        <v>493.7554095828908</v>
+        <v>556.0560425052776</v>
       </c>
       <c r="V36" t="n">
-        <v>397.5084678259881</v>
+        <v>459.8091007483749</v>
       </c>
       <c r="W36" t="n">
-        <v>196.863417985152</v>
+        <v>355.9849147536921</v>
       </c>
       <c r="X36" t="n">
-        <v>133.849400207194</v>
+        <v>292.9708969757341</v>
       </c>
       <c r="Y36" t="n">
-        <v>80.82824315473155</v>
+        <v>239.9497399232717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.8807614642745</v>
+        <v>121.7096328117851</v>
       </c>
       <c r="C37" t="n">
-        <v>169.968703402294</v>
+        <v>77.79757474980462</v>
       </c>
       <c r="D37" t="n">
-        <v>140.6286501768391</v>
+        <v>77.79757474980462</v>
       </c>
       <c r="E37" t="n">
-        <v>111.362897908072</v>
+        <v>48.53182248103747</v>
       </c>
       <c r="F37" t="n">
-        <v>80.33002299307523</v>
+        <v>48.53182248103747</v>
       </c>
       <c r="G37" t="n">
-        <v>39.16075818016729</v>
+        <v>39.16075818016731</v>
       </c>
       <c r="H37" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="I37" t="n">
-        <v>17.01445949435181</v>
+        <v>33.68408976198042</v>
       </c>
       <c r="J37" t="n">
-        <v>96.77883053245802</v>
+        <v>130.6037120050429</v>
       </c>
       <c r="K37" t="n">
-        <v>103.9128463360896</v>
+        <v>227.6926743166673</v>
       </c>
       <c r="L37" t="n">
-        <v>132.4806989154988</v>
+        <v>380.0403548766535</v>
       </c>
       <c r="M37" t="n">
-        <v>288.4992058917815</v>
+        <v>412.2790338723592</v>
       </c>
       <c r="N37" t="n">
-        <v>448.8585409774031</v>
+        <v>448.8585409774039</v>
       </c>
       <c r="O37" t="n">
-        <v>593.2219565378263</v>
+        <v>593.2219565378271</v>
       </c>
       <c r="P37" t="n">
-        <v>722.2243183801852</v>
+        <v>722.224318380186</v>
       </c>
       <c r="Q37" t="n">
-        <v>813.4879024551257</v>
+        <v>813.4879024551265</v>
       </c>
       <c r="R37" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="S37" t="n">
-        <v>850.7229747175904</v>
+        <v>787.9976317388638</v>
       </c>
       <c r="T37" t="n">
-        <v>744.6798257700332</v>
+        <v>681.9544827913064</v>
       </c>
       <c r="U37" t="n">
-        <v>585.5772791139071</v>
+        <v>681.9544827913064</v>
       </c>
       <c r="V37" t="n">
-        <v>585.5772791139071</v>
+        <v>542.268197484161</v>
       </c>
       <c r="W37" t="n">
-        <v>428.5399369171151</v>
+        <v>385.2308552873689</v>
       </c>
       <c r="X37" t="n">
-        <v>369.6147215948717</v>
+        <v>277.4435929423823</v>
       </c>
       <c r="Y37" t="n">
-        <v>272.7957202835454</v>
+        <v>180.624591631056</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.01445949435181</v>
+        <v>411.557427187524</v>
       </c>
       <c r="C38" t="n">
-        <v>17.01445949435181</v>
+        <v>411.557427187524</v>
       </c>
       <c r="D38" t="n">
-        <v>17.01445949435181</v>
+        <v>411.557427187524</v>
       </c>
       <c r="E38" t="n">
-        <v>17.01445949435181</v>
+        <v>411.557427187524</v>
       </c>
       <c r="F38" t="n">
-        <v>17.01445949435181</v>
+        <v>411.557427187524</v>
       </c>
       <c r="G38" t="n">
-        <v>17.01445949435181</v>
+        <v>196.7283931679302</v>
       </c>
       <c r="H38" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="I38" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="J38" t="n">
-        <v>47.33456133477296</v>
+        <v>47.33456133477297</v>
       </c>
       <c r="K38" t="n">
         <v>125.756571177865</v>
@@ -7195,31 +7195,31 @@
         <v>806.9668950064764</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.7229747175904</v>
+        <v>850.722974717591</v>
       </c>
       <c r="R38" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="S38" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="T38" t="n">
-        <v>761.2418267812146</v>
+        <v>761.2418267812154</v>
       </c>
       <c r="U38" t="n">
-        <v>631.9233590457131</v>
+        <v>631.9233590457139</v>
       </c>
       <c r="V38" t="n">
-        <v>417.0943250261196</v>
+        <v>417.0943250261201</v>
       </c>
       <c r="W38" t="n">
-        <v>202.265291006526</v>
+        <v>411.557427187524</v>
       </c>
       <c r="X38" t="n">
-        <v>202.265291006526</v>
+        <v>411.557427187524</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.265291006526</v>
+        <v>411.557427187524</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>269.5352259200606</v>
+        <v>143.2421660480303</v>
       </c>
       <c r="C39" t="n">
-        <v>245.1740553521832</v>
+        <v>118.8809954801528</v>
       </c>
       <c r="D39" t="n">
-        <v>241.3781478456938</v>
+        <v>27.16789051143377</v>
       </c>
       <c r="E39" t="n">
-        <v>104.9316569565815</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="F39" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="G39" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="H39" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="I39" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="J39" t="n">
-        <v>22.84130391496945</v>
+        <v>22.84130391496947</v>
       </c>
       <c r="K39" t="n">
-        <v>83.60094518713042</v>
+        <v>83.60094518713043</v>
       </c>
       <c r="L39" t="n">
-        <v>195.4094328338529</v>
+        <v>195.409432833853</v>
       </c>
       <c r="M39" t="n">
-        <v>338.4666285638884</v>
+        <v>338.4666285638885</v>
       </c>
       <c r="N39" t="n">
         <v>494.6757417801624</v>
@@ -7283,22 +7283,22 @@
         <v>741.737029501658</v>
       </c>
       <c r="T39" t="n">
-        <v>694.8527568263041</v>
+        <v>568.5596969542737</v>
       </c>
       <c r="U39" t="n">
-        <v>611.1448030709976</v>
+        <v>484.8517431989672</v>
       </c>
       <c r="V39" t="n">
-        <v>514.8978613140949</v>
+        <v>388.6048014420646</v>
       </c>
       <c r="W39" t="n">
-        <v>411.0736753194121</v>
+        <v>284.7806154473818</v>
       </c>
       <c r="X39" t="n">
-        <v>348.0596575414541</v>
+        <v>221.7665976694237</v>
       </c>
       <c r="Y39" t="n">
-        <v>295.0385004889916</v>
+        <v>168.7454406169613</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.8807614642745</v>
+        <v>80.33002299307526</v>
       </c>
       <c r="C40" t="n">
-        <v>169.968703402294</v>
+        <v>80.33002299307526</v>
       </c>
       <c r="D40" t="n">
-        <v>140.6286501768391</v>
+        <v>80.33002299307526</v>
       </c>
       <c r="E40" t="n">
-        <v>111.362897908072</v>
+        <v>80.33002299307526</v>
       </c>
       <c r="F40" t="n">
-        <v>80.33002299307523</v>
+        <v>80.33002299307526</v>
       </c>
       <c r="G40" t="n">
-        <v>39.16075818016729</v>
+        <v>39.16075818016731</v>
       </c>
       <c r="H40" t="n">
-        <v>17.01445949435181</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="I40" t="n">
-        <v>33.6840897619804</v>
+        <v>33.68408976198042</v>
       </c>
       <c r="J40" t="n">
-        <v>96.77883053245802</v>
+        <v>130.6037120050429</v>
       </c>
       <c r="K40" t="n">
-        <v>227.6926743166665</v>
+        <v>137.7377278086745</v>
       </c>
       <c r="L40" t="n">
-        <v>380.0403548766527</v>
+        <v>166.3055803880837</v>
       </c>
       <c r="M40" t="n">
-        <v>412.2790338723584</v>
+        <v>288.4992058917823</v>
       </c>
       <c r="N40" t="n">
-        <v>448.8585409774031</v>
+        <v>448.8585409774039</v>
       </c>
       <c r="O40" t="n">
-        <v>593.2219565378263</v>
+        <v>593.2219565378271</v>
       </c>
       <c r="P40" t="n">
-        <v>722.2243183801852</v>
+        <v>722.224318380186</v>
       </c>
       <c r="Q40" t="n">
-        <v>813.4879024551257</v>
+        <v>813.4879024551265</v>
       </c>
       <c r="R40" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="S40" t="n">
-        <v>850.7229747175904</v>
+        <v>850.7229747175912</v>
       </c>
       <c r="T40" t="n">
-        <v>774.1256114437958</v>
+        <v>744.6798257700339</v>
       </c>
       <c r="U40" t="n">
-        <v>774.1256114437958</v>
+        <v>640.5748729725966</v>
       </c>
       <c r="V40" t="n">
-        <v>634.4393261366504</v>
+        <v>500.8885876654512</v>
       </c>
       <c r="W40" t="n">
-        <v>477.4019839398583</v>
+        <v>343.8512454686591</v>
       </c>
       <c r="X40" t="n">
-        <v>369.6147215948717</v>
+        <v>236.0639831236725</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.7957202835454</v>
+        <v>139.2449818123462</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>673.1426874441552</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="C41" t="n">
-        <v>673.1426874441552</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="D41" t="n">
-        <v>661.5015615531332</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="E41" t="n">
-        <v>446.6725275335394</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="F41" t="n">
-        <v>231.8434935139456</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="G41" t="n">
         <v>17.01445949435183</v>
@@ -7411,7 +7411,7 @@
         <v>17.01445949435183</v>
       </c>
       <c r="J41" t="n">
-        <v>47.3345613347734</v>
+        <v>47.33456133477298</v>
       </c>
       <c r="K41" t="n">
         <v>125.7565711778654</v>
@@ -7438,25 +7438,25 @@
         <v>850.7229747175915</v>
       </c>
       <c r="S41" t="n">
-        <v>806.6734050490612</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="T41" t="n">
-        <v>673.1426874441552</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="U41" t="n">
-        <v>673.1426874441552</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="V41" t="n">
-        <v>673.1426874441552</v>
+        <v>635.8939406979977</v>
       </c>
       <c r="W41" t="n">
-        <v>673.1426874441552</v>
+        <v>446.6725275335394</v>
       </c>
       <c r="X41" t="n">
-        <v>673.1426874441552</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="Y41" t="n">
-        <v>673.1426874441552</v>
+        <v>231.8434935139456</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>139.6282004163718</v>
+        <v>229.6619935047598</v>
       </c>
       <c r="C42" t="n">
-        <v>71.21746017996405</v>
+        <v>161.251253268352</v>
       </c>
       <c r="D42" t="n">
-        <v>71.21746017996405</v>
+        <v>113.4057760933323</v>
       </c>
       <c r="E42" t="n">
-        <v>17.01445949435183</v>
+        <v>59.20277540772004</v>
       </c>
       <c r="F42" t="n">
         <v>17.01445949435183</v>
@@ -7484,58 +7484,58 @@
         <v>17.01445949435183</v>
       </c>
       <c r="H42" t="n">
-        <v>20.02014479434523</v>
+        <v>20.02014479434517</v>
       </c>
       <c r="I42" t="n">
-        <v>68.4518385405264</v>
+        <v>68.45183854052628</v>
       </c>
       <c r="J42" t="n">
-        <v>74.27868296114404</v>
+        <v>87.49811582395679</v>
       </c>
       <c r="K42" t="n">
-        <v>148.2577570961175</v>
+        <v>148.2577570961178</v>
       </c>
       <c r="L42" t="n">
-        <v>260.0662447428401</v>
+        <v>260.0662447428403</v>
       </c>
       <c r="M42" t="n">
-        <v>403.1234404728756</v>
+        <v>403.1234404728758</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3325536891496</v>
+        <v>559.3325536891498</v>
       </c>
       <c r="O42" t="n">
-        <v>687.7905074754949</v>
+        <v>687.7905074754951</v>
       </c>
       <c r="P42" t="n">
-        <v>778.3228473841623</v>
+        <v>778.3228473841624</v>
       </c>
       <c r="Q42" t="n">
-        <v>806.3938414106452</v>
+        <v>806.3938414106453</v>
       </c>
       <c r="R42" t="n">
         <v>850.7229747175915</v>
       </c>
       <c r="S42" t="n">
-        <v>815.5770714329848</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="T42" t="n">
-        <v>724.6432290891006</v>
+        <v>759.7891323737073</v>
       </c>
       <c r="U42" t="n">
-        <v>701.48562590996</v>
+        <v>632.0316089498704</v>
       </c>
       <c r="V42" t="n">
-        <v>561.1891144845272</v>
+        <v>491.7350975244374</v>
       </c>
       <c r="W42" t="n">
-        <v>413.3153588213141</v>
+        <v>491.7350975244374</v>
       </c>
       <c r="X42" t="n">
-        <v>306.2517713748258</v>
+        <v>396.2855644632139</v>
       </c>
       <c r="Y42" t="n">
-        <v>209.1810446538331</v>
+        <v>299.2148377422211</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.9760872248626</v>
+        <v>190.1949217063009</v>
       </c>
       <c r="C43" t="n">
-        <v>17.01445949435183</v>
+        <v>102.2332939757901</v>
       </c>
       <c r="D43" t="n">
-        <v>17.01445949435183</v>
+        <v>102.2332939757901</v>
       </c>
       <c r="E43" t="n">
-        <v>17.01445949435183</v>
+        <v>102.2332939757901</v>
       </c>
       <c r="F43" t="n">
-        <v>17.01445949435183</v>
+        <v>102.2332939757901</v>
       </c>
       <c r="G43" t="n">
         <v>17.01445949435183</v>
@@ -7569,52 +7569,52 @@
         <v>17.01445949435183</v>
       </c>
       <c r="J43" t="n">
-        <v>122.7089096041017</v>
+        <v>70.76109850528772</v>
       </c>
       <c r="K43" t="n">
-        <v>210.4497701561837</v>
+        <v>178.6975775122901</v>
       </c>
       <c r="L43" t="n">
-        <v>319.6244674840433</v>
+        <v>287.8722748401497</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4699912281994</v>
+        <v>498.4262110827535</v>
       </c>
       <c r="N43" t="n">
-        <v>549.6563430816946</v>
+        <v>615.6125629362485</v>
       </c>
       <c r="O43" t="n">
-        <v>650.8467754099912</v>
+        <v>716.8029952645452</v>
       </c>
       <c r="P43" t="n">
-        <v>736.6761540202236</v>
+        <v>802.6323738747776</v>
       </c>
       <c r="Q43" t="n">
         <v>850.7229747175915</v>
       </c>
       <c r="R43" t="n">
-        <v>844.6645001031013</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="S43" t="n">
-        <v>844.6645001031013</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="T43" t="n">
-        <v>694.5717814870137</v>
+        <v>850.7229747175915</v>
       </c>
       <c r="U43" t="n">
-        <v>694.5717814870137</v>
+        <v>726.854520560816</v>
       </c>
       <c r="V43" t="n">
-        <v>510.835926511338</v>
+        <v>543.1186655851402</v>
       </c>
       <c r="W43" t="n">
-        <v>500.6460187060372</v>
+        <v>342.0317537198179</v>
       </c>
       <c r="X43" t="n">
-        <v>348.8091866925204</v>
+        <v>190.1949217063009</v>
       </c>
       <c r="Y43" t="n">
-        <v>207.9406157126638</v>
+        <v>190.1949217063009</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="C44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="E44" t="n">
-        <v>635.8939406979977</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="F44" t="n">
-        <v>446.6725275335394</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8434935139456</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="H44" t="n">
         <v>17.01445949435183</v>
@@ -7678,22 +7678,22 @@
         <v>850.7229747175915</v>
       </c>
       <c r="T44" t="n">
-        <v>850.7229747175915</v>
+        <v>717.1922571126853</v>
       </c>
       <c r="U44" t="n">
-        <v>850.7229747175915</v>
+        <v>543.8242197086536</v>
       </c>
       <c r="V44" t="n">
-        <v>850.7229747175915</v>
+        <v>446.6725275335394</v>
       </c>
       <c r="W44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="X44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
       <c r="Y44" t="n">
-        <v>850.7229747175915</v>
+        <v>231.8434935139456</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.0282801716755</v>
+        <v>266.5339498802711</v>
       </c>
       <c r="C45" t="n">
-        <v>17.01445949435183</v>
+        <v>198.1232096438632</v>
       </c>
       <c r="D45" t="n">
-        <v>17.01445949435183</v>
+        <v>150.2777324688436</v>
       </c>
       <c r="E45" t="n">
-        <v>17.01445949435183</v>
+        <v>96.07473178323127</v>
       </c>
       <c r="F45" t="n">
-        <v>17.01445949435183</v>
+        <v>53.88641586986306</v>
       </c>
       <c r="G45" t="n">
         <v>17.01445949435183</v>
@@ -7745,10 +7745,10 @@
         <v>623.1336955665078</v>
       </c>
       <c r="P45" t="n">
-        <v>778.3228473841623</v>
+        <v>713.666035475175</v>
       </c>
       <c r="Q45" t="n">
-        <v>806.3938414106452</v>
+        <v>806.3938414106453</v>
       </c>
       <c r="R45" t="n">
         <v>850.7229747175915</v>
@@ -7757,22 +7757,22 @@
         <v>815.5770714329848</v>
       </c>
       <c r="T45" t="n">
-        <v>724.6432290891006</v>
+        <v>815.5770714329848</v>
       </c>
       <c r="U45" t="n">
-        <v>596.8857056652638</v>
+        <v>687.8195480091479</v>
       </c>
       <c r="V45" t="n">
-        <v>456.5891942398309</v>
+        <v>547.5230365837149</v>
       </c>
       <c r="W45" t="n">
-        <v>308.7154385766178</v>
+        <v>399.6492809205017</v>
       </c>
       <c r="X45" t="n">
-        <v>201.6518511301295</v>
+        <v>399.6492809205017</v>
       </c>
       <c r="Y45" t="n">
-        <v>104.5811244091368</v>
+        <v>336.0867941177324</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>478.1781794754562</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="C46" t="n">
-        <v>390.2165517449455</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="D46" t="n">
-        <v>316.8269288509603</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="E46" t="n">
-        <v>243.5116069136628</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="F46" t="n">
-        <v>168.4291623301358</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="G46" t="n">
-        <v>83.21032784869759</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="H46" t="n">
         <v>17.01445949435183</v>
@@ -7806,25 +7806,25 @@
         <v>17.01445949435183</v>
       </c>
       <c r="J46" t="n">
-        <v>122.7089096041017</v>
+        <v>70.76109850528772</v>
       </c>
       <c r="K46" t="n">
-        <v>210.4497701561837</v>
+        <v>183.038405621629</v>
       </c>
       <c r="L46" t="n">
-        <v>319.6244674840433</v>
+        <v>292.2131029494886</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4699912281994</v>
+        <v>405.0586266936447</v>
       </c>
       <c r="N46" t="n">
-        <v>549.6563430816946</v>
+        <v>615.6125629362485</v>
       </c>
       <c r="O46" t="n">
-        <v>650.8467754099912</v>
+        <v>716.8029952645452</v>
       </c>
       <c r="P46" t="n">
-        <v>736.6761540202236</v>
+        <v>802.6323738747776</v>
       </c>
       <c r="Q46" t="n">
         <v>850.7229747175915</v>
@@ -7836,22 +7836,22 @@
         <v>844.6645001031013</v>
       </c>
       <c r="T46" t="n">
-        <v>844.6645001031013</v>
+        <v>756.8261746735233</v>
       </c>
       <c r="U46" t="n">
-        <v>844.6645001031013</v>
+        <v>553.6740583488669</v>
       </c>
       <c r="V46" t="n">
-        <v>844.6645001031013</v>
+        <v>369.9382033731911</v>
       </c>
       <c r="W46" t="n">
-        <v>643.577588237779</v>
+        <v>168.8512915078687</v>
       </c>
       <c r="X46" t="n">
-        <v>643.577588237779</v>
+        <v>17.01445949435183</v>
       </c>
       <c r="Y46" t="n">
-        <v>581.1427079632574</v>
+        <v>17.01445949435183</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>151.786080942901</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>118.8565667300063</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>115.4791196954246</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>62.3645951538672</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.1411959488509</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,19 +10035,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
-        <v>22.72059605936607</v>
+        <v>6.372246430276107</v>
       </c>
       <c r="N28" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>223.2638104631139</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>164.8411617123606</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>33.25923784284004</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.3741817318589</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>52.49630322198041</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>198.5618432849754</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
-        <v>253.4605344048249</v>
+        <v>215.1988963221413</v>
       </c>
       <c r="M31" t="n">
-        <v>176.4719015098185</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>107.9042522949195</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>20.39961460092977</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>98.69536616004828</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.62244429752919</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>24.78428945884787</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>94.31069130213012</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.62244429752919</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.4386957980864</v>
+        <v>297.4386957980863</v>
       </c>
       <c r="C11" t="n">
-        <v>102.8634449930887</v>
+        <v>290.1926440259021</v>
       </c>
       <c r="D11" t="n">
-        <v>69.85487135990468</v>
+        <v>282.5356150393023</v>
       </c>
       <c r="E11" t="n">
-        <v>86.82584349902663</v>
+        <v>299.5065871784243</v>
       </c>
       <c r="F11" t="n">
-        <v>100.9936479497277</v>
+        <v>313.6743916291254</v>
       </c>
       <c r="G11" t="n">
-        <v>308.232651272044</v>
+        <v>308.2326512720439</v>
       </c>
       <c r="H11" t="n">
         <v>203.8958211539561</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.97902681711349</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>114.5653632741255</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>154.0043098752599</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>239.6346387473203</v>
+        <v>26.95389506792253</v>
       </c>
       <c r="W11" t="n">
-        <v>268.2379422251989</v>
+        <v>55.55719854580116</v>
       </c>
       <c r="X11" t="n">
-        <v>286.5069765600772</v>
+        <v>181.0457338143648</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.4746995324084</v>
+        <v>293.4746995324083</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.30483604819167</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>69.45196429847408</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.02567951031381</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>54.95212156319292</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.7365989818923</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.141016445771481</v>
+        <v>9.141016445771427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>130.9617442751952</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>183.4905480066783</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>164.2684492711875</v>
+        <v>164.2684492711874</v>
       </c>
       <c r="W13" t="n">
-        <v>1.058155903407282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>132.6884165386502</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>117.7276643218657</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.1094967652729</v>
+        <v>297.4386957980863</v>
       </c>
       <c r="C14" t="n">
-        <v>290.1926440259022</v>
+        <v>290.1926440259021</v>
       </c>
       <c r="D14" t="n">
-        <v>282.5356150393024</v>
+        <v>282.5356150393023</v>
       </c>
       <c r="E14" t="n">
-        <v>299.5065871784244</v>
+        <v>299.5065871784243</v>
       </c>
       <c r="F14" t="n">
-        <v>313.6743916291255</v>
+        <v>313.6743916291254</v>
       </c>
       <c r="G14" t="n">
-        <v>308.232651272044</v>
+        <v>308.2326512720439</v>
       </c>
       <c r="H14" t="n">
-        <v>203.8958211539561</v>
+        <v>203.895821153956</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>25.97902681711349</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>114.5653632741255</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>154.0043098752599</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>239.6346387473203</v>
+        <v>26.95389506792253</v>
       </c>
       <c r="W14" t="n">
-        <v>55.55719854580107</v>
+        <v>55.55719854580116</v>
       </c>
       <c r="X14" t="n">
-        <v>73.82623288067938</v>
+        <v>286.5069765600771</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.79395585301054</v>
+        <v>188.013456786696</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.02567951031386</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>56.70157298296024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>47.90386251607082</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.141016445771481</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>88.0771163660536</v>
       </c>
       <c r="T16" t="n">
         <v>130.9617442751952</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>183.4905480066782</v>
       </c>
       <c r="V16" t="n">
-        <v>140.4284591186403</v>
+        <v>164.2684492711874</v>
       </c>
       <c r="W16" t="n">
-        <v>181.4459955919376</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>54.81047252177486</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.047264285002</v>
+        <v>271.4596689809729</v>
       </c>
       <c r="C17" t="n">
         <v>264.2136172087887</v>
@@ -23740,13 +23740,13 @@
         <v>256.5565882221889</v>
       </c>
       <c r="E17" t="n">
-        <v>60.8468166819132</v>
+        <v>273.5275603613109</v>
       </c>
       <c r="F17" t="n">
-        <v>75.01462113261431</v>
+        <v>287.695364812012</v>
       </c>
       <c r="G17" t="n">
-        <v>69.57288077553284</v>
+        <v>282.2536244549305</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>88.58633645701202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>128.0252830581464</v>
       </c>
       <c r="V17" t="n">
-        <v>213.6556119302068</v>
+        <v>0.9748682508090099</v>
       </c>
       <c r="W17" t="n">
-        <v>242.2589154080854</v>
+        <v>29.57817172868764</v>
       </c>
       <c r="X17" t="n">
         <v>260.5279497429637</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.4956727152949</v>
+        <v>133.9888607969382</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.32580923107824</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>28.97309474607948</v>
       </c>
       <c r="F19" t="n">
-        <v>30.72254616584675</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>62.09808954894017</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.21448634539047</v>
+        <v>99.36394502943163</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.85081129821305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>271.4596689809729</v>
       </c>
       <c r="C20" t="n">
-        <v>264.2136172087887</v>
+        <v>51.53287352939091</v>
       </c>
       <c r="D20" t="n">
-        <v>247.144183526218</v>
+        <v>69.2273891893754</v>
       </c>
       <c r="E20" t="n">
-        <v>60.84681668191311</v>
+        <v>273.5275603613109</v>
       </c>
       <c r="F20" t="n">
-        <v>75.01462113261422</v>
+        <v>287.695364812012</v>
       </c>
       <c r="G20" t="n">
-        <v>69.57288077553275</v>
+        <v>282.2536244549305</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>177.9167943368426</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>242.2589154080854</v>
       </c>
       <c r="X20" t="n">
-        <v>260.5279497429637</v>
+        <v>47.84720606356595</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.4956727152949</v>
+        <v>54.81492903589711</v>
       </c>
     </row>
     <row r="21">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>271.4596689809729</v>
       </c>
       <c r="C23" t="n">
         <v>264.2136172087887</v>
       </c>
       <c r="D23" t="n">
-        <v>256.5565882221889</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>273.5275603613109</v>
       </c>
       <c r="F23" t="n">
         <v>287.695364812012</v>
       </c>
       <c r="G23" t="n">
-        <v>237.2157774011317</v>
+        <v>5.47245340088574</v>
       </c>
       <c r="H23" t="n">
-        <v>177.9167943368426</v>
+        <v>111.30574665971</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>88.58633645701202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>128.0252830581464</v>
       </c>
       <c r="V23" t="n">
-        <v>213.6556119302068</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>242.2589154080854</v>
       </c>
       <c r="X23" t="n">
-        <v>260.5279497429637</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>267.4956727152949</v>
       </c>
     </row>
     <row r="24">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.9016974653244</v>
+        <v>13.25828360734675</v>
       </c>
       <c r="C26" t="n">
-        <v>319.6556456931402</v>
+        <v>43.39852676703362</v>
       </c>
       <c r="D26" t="n">
         <v>311.9986167065405</v>
       </c>
       <c r="E26" t="n">
-        <v>175.6915380530941</v>
+        <v>328.9695888456624</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49397943838602</v>
+        <v>29.49397943838585</v>
       </c>
       <c r="G26" t="n">
         <v>337.6956529392821</v>
@@ -24499,19 +24499,19 @@
         <v>144.0283649413636</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>183.467311542498</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>269.0976404145583</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>297.700943892437</v>
       </c>
       <c r="X26" t="n">
         <v>315.9699782273153</v>
       </c>
       <c r="Y26" t="n">
-        <v>322.9377011996464</v>
+        <v>9.294287341668735</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>113.7678377154298</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>56.05041860757928</v>
+        <v>63.8878262806715</v>
       </c>
       <c r="F28" t="n">
         <v>86.1645746501983</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.19960064913043</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>38.60401811300954</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>17.83084438085177</v>
       </c>
       <c r="S28" t="n">
-        <v>117.5401180332917</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>160.4247459424333</v>
       </c>
       <c r="U28" t="n">
-        <v>212.9535496739163</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>151.2928397825646</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.7997489882357</v>
+        <v>13.25828360734675</v>
       </c>
       <c r="C29" t="n">
-        <v>319.6556456931402</v>
+        <v>98.84055525138518</v>
       </c>
       <c r="D29" t="n">
         <v>311.9986167065405</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.44202848435155</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>144.0283649413636</v>
@@ -24739,16 +24739,16 @@
         <v>183.467311542498</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>269.0976404145583</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>297.700943892437</v>
       </c>
       <c r="X29" t="n">
-        <v>2.326564369337746</v>
+        <v>2.326564369337575</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.294287341668905</v>
+        <v>9.294287341668735</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.7678377154298</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>86.1645746501983</v>
       </c>
       <c r="G31" t="n">
-        <v>24.93634427109232</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>38.60401811300954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.83084438085177</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>117.5401180332917</v>
       </c>
       <c r="T31" t="n">
-        <v>160.4247459424333</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>193.7314509384256</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>84.6243032583715</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.4596689809729</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>264.2136172087887</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>256.5565882221889</v>
       </c>
       <c r="E32" t="n">
-        <v>10.87106040854957</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.73413392119096</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>282.2536244549305</v>
       </c>
       <c r="H32" t="n">
         <v>177.9167943368426</v>
@@ -25162,13 +25162,13 @@
         <v>256.5565882221889</v>
       </c>
       <c r="E35" t="n">
-        <v>273.5275603613109</v>
+        <v>264.11515566534</v>
       </c>
       <c r="F35" t="n">
-        <v>287.695364812012</v>
+        <v>75.01462113261417</v>
       </c>
       <c r="G35" t="n">
-        <v>69.57288077553289</v>
+        <v>69.5728807755327</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>213.6556119302068</v>
       </c>
       <c r="W35" t="n">
-        <v>232.8465107121147</v>
+        <v>242.2589154080854</v>
       </c>
       <c r="X35" t="n">
-        <v>47.84720606356609</v>
+        <v>47.84720606356589</v>
       </c>
       <c r="Y35" t="n">
-        <v>54.81492903589725</v>
+        <v>267.4956727152949</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>29.04665269320037</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.72254616584675</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>31.48021850691741</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>62.09808954894017</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>157.5115211895648</v>
       </c>
       <c r="V37" t="n">
-        <v>138.289422454074</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>48.37342655251575</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.06134578392042</v>
+        <v>271.4596689809729</v>
       </c>
       <c r="C38" t="n">
         <v>264.2136172087887</v>
@@ -25405,10 +25405,10 @@
         <v>287.695364812012</v>
       </c>
       <c r="G38" t="n">
-        <v>282.2536244549305</v>
+        <v>69.5728807755327</v>
       </c>
       <c r="H38" t="n">
-        <v>177.9167943368426</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.974868250809152</v>
+        <v>0.974868250808953</v>
       </c>
       <c r="W38" t="n">
-        <v>29.57817172868778</v>
+        <v>236.7773865478752</v>
       </c>
       <c r="X38" t="n">
         <v>260.5279497429637</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.47293748136065</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>29.04665269320037</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>28.97309474607948</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>30.72254616584675</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>62.09808954894017</v>
       </c>
       <c r="T40" t="n">
-        <v>29.15132781702509</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.5115211895648</v>
+        <v>54.44761792010191</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>315.0687429528178</v>
+        <v>315.0687429528179</v>
       </c>
       <c r="C41" t="n">
-        <v>307.8226911806336</v>
+        <v>307.8226911806337</v>
       </c>
       <c r="D41" t="n">
-        <v>288.6409475619221</v>
+        <v>87.48491851463606</v>
       </c>
       <c r="E41" t="n">
-        <v>104.455890653758</v>
+        <v>317.1366343331559</v>
       </c>
       <c r="F41" t="n">
-        <v>118.6236951044591</v>
+        <v>331.304438783857</v>
       </c>
       <c r="G41" t="n">
-        <v>113.1819547473776</v>
+        <v>325.8626984267755</v>
       </c>
       <c r="H41" t="n">
         <v>221.5258683086876</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>43.60907397184504</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>132.1954104288571</v>
       </c>
       <c r="U41" t="n">
-        <v>171.6343570299914</v>
+        <v>171.6343570299915</v>
       </c>
       <c r="V41" t="n">
-        <v>257.2646859020517</v>
+        <v>44.58394222265392</v>
       </c>
       <c r="W41" t="n">
-        <v>285.8679893799303</v>
+        <v>98.53879034711679</v>
       </c>
       <c r="X41" t="n">
-        <v>304.1370237148087</v>
+        <v>91.45628003541086</v>
       </c>
       <c r="Y41" t="n">
-        <v>311.1047466871398</v>
+        <v>311.1047466871399</v>
       </c>
     </row>
     <row r="42">
@@ -25712,16 +25712,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.36702240326942</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>41.76643275423447</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>36.50323681175606</v>
+        <v>36.50323681175612</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>34.79444425176062</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>103.5539210422493</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>146.395018106581</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>11.4979138414122</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>101.9348832029233</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>72.65572666504535</v>
+        <v>72.65572666504541</v>
       </c>
       <c r="E43" t="n">
-        <v>72.58216871792446</v>
+        <v>72.58216871792452</v>
       </c>
       <c r="F43" t="n">
-        <v>74.33162013769173</v>
+        <v>74.33162013769179</v>
       </c>
       <c r="G43" t="n">
-        <v>84.36664613662384</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.5339096708023</v>
+        <v>65.53390967080236</v>
       </c>
       <c r="I43" t="n">
-        <v>26.77106360050297</v>
+        <v>26.77106360050302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.997889868345254</v>
       </c>
       <c r="S43" t="n">
-        <v>105.7071635207851</v>
+        <v>105.7071635207852</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>148.5917914299268</v>
       </c>
       <c r="U43" t="n">
-        <v>201.1205951614097</v>
+        <v>78.49082554620212</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>188.9880340194213</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.4598852700581</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.0687429528178</v>
+        <v>315.0687429528179</v>
       </c>
       <c r="C44" t="n">
-        <v>307.8226911806336</v>
+        <v>307.8226911806337</v>
       </c>
       <c r="D44" t="n">
         <v>300.1656621940339</v>
       </c>
       <c r="E44" t="n">
-        <v>104.455890653758</v>
+        <v>317.1366343331559</v>
       </c>
       <c r="F44" t="n">
-        <v>143.9752397510433</v>
+        <v>331.304438783857</v>
       </c>
       <c r="G44" t="n">
-        <v>113.1819547473776</v>
+        <v>113.1819547473777</v>
       </c>
       <c r="H44" t="n">
-        <v>8.8451246292897</v>
+        <v>221.5258683086876</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>43.60907397184498</v>
+        <v>43.60907397184504</v>
       </c>
       <c r="T44" t="n">
-        <v>132.195410428857</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>171.6343570299914</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>257.2646859020517</v>
+        <v>161.0845106486888</v>
       </c>
       <c r="W44" t="n">
-        <v>285.8679893799303</v>
+        <v>73.18724570053254</v>
       </c>
       <c r="X44" t="n">
         <v>304.1370237148087</v>
       </c>
       <c r="Y44" t="n">
-        <v>311.1047466871398</v>
+        <v>311.1047466871399</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>49.89295036349321</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>47.36702240326942</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>53.6609706787561</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>41.76643275423447</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>36.50323681175606</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>90.02450392044537</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>105.9929515720235</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>33.17315751904126</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>101.9348832029233</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>87.08201145320568</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>72.65572666504541</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>72.58216871792452</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.33162013769179</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.3666461366239</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>65.53390967080236</v>
       </c>
       <c r="I46" t="n">
-        <v>26.77106360050297</v>
+        <v>26.77106360050302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.7071635207851</v>
+        <v>105.7071635207852</v>
       </c>
       <c r="T46" t="n">
-        <v>148.5917914299267</v>
+        <v>61.63184925464452</v>
       </c>
       <c r="U46" t="n">
-        <v>201.1205951614097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>181.8984964259189</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>150.3184636933817</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.64935379828167</v>
+        <v>139.4598852700581</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390003.6227528981</v>
+        <v>390003.6227528982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390003.6227528982</v>
+        <v>390003.6227528983</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>419375.630542834</v>
+        <v>419375.6305428341</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>419375.630542834</v>
+        <v>419375.6305428341</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>439348.6462994575</v>
+        <v>439348.6462994576</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>413218.188714651</v>
+        <v>413218.1887146513</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>419375.6305428339</v>
+        <v>419375.6305428341</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363930.6764989215</v>
+        <v>363930.6764989214</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>701606.9631273963</v>
+        <v>701606.9631273964</v>
       </c>
       <c r="C2" t="n">
-        <v>701606.9631273963</v>
+        <v>701606.9631273965</v>
       </c>
       <c r="D2" t="n">
-        <v>701606.9631273963</v>
+        <v>701606.9631273962</v>
       </c>
       <c r="E2" t="n">
         <v>490649.7189471941</v>
       </c>
       <c r="F2" t="n">
-        <v>490649.7189471943</v>
+        <v>490649.7189471942</v>
       </c>
       <c r="G2" t="n">
         <v>527601.5997151781</v>
@@ -26334,16 +26334,16 @@
         <v>527601.599715178</v>
       </c>
       <c r="I2" t="n">
-        <v>552728.9421186722</v>
+        <v>552728.9421186724</v>
       </c>
       <c r="J2" t="n">
-        <v>487455.5609045979</v>
+        <v>487455.5609045978</v>
       </c>
       <c r="K2" t="n">
-        <v>487455.5609045979</v>
+        <v>487455.560904598</v>
       </c>
       <c r="L2" t="n">
-        <v>563831.4400379745</v>
+        <v>563831.4400379747</v>
       </c>
       <c r="M2" t="n">
         <v>527601.599715178</v>
@@ -26352,10 +26352,10 @@
         <v>527601.5997151784</v>
       </c>
       <c r="O2" t="n">
-        <v>455690.7303955666</v>
+        <v>455690.7303955664</v>
       </c>
       <c r="P2" t="n">
-        <v>455690.7303955666</v>
+        <v>455690.7303955664</v>
       </c>
     </row>
     <row r="3">
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20783.22145369071</v>
+        <v>20783.22145369075</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17045.64974789345</v>
+        <v>17045.64974789351</v>
       </c>
       <c r="J3" t="n">
-        <v>44532.04383366823</v>
+        <v>44532.04383366826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65136.84424117204</v>
+        <v>65136.84424117199</v>
       </c>
       <c r="M3" t="n">
-        <v>27840.59078869769</v>
+        <v>27840.59078869787</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>410722.2097871767</v>
       </c>
       <c r="E4" t="n">
-        <v>137229.2816111177</v>
+        <v>137229.2816111178</v>
       </c>
       <c r="F4" t="n">
         <v>137229.2816111178</v>
@@ -26435,10 +26435,10 @@
         <v>158800.9729985594</v>
       </c>
       <c r="H4" t="n">
-        <v>158800.9729985593</v>
+        <v>158800.9729985594</v>
       </c>
       <c r="I4" t="n">
-        <v>173848.679542421</v>
+        <v>173848.6795424211</v>
       </c>
       <c r="J4" t="n">
         <v>137364.6589580633</v>
@@ -26450,10 +26450,10 @@
         <v>180497.4977067435</v>
       </c>
       <c r="M4" t="n">
-        <v>158800.9729985593</v>
+        <v>158800.9729985594</v>
       </c>
       <c r="N4" t="n">
-        <v>158800.9729985593</v>
+        <v>158800.9729985594</v>
       </c>
       <c r="O4" t="n">
         <v>116847.7711624708</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30733.68994643492</v>
+        <v>30733.68994643491</v>
       </c>
       <c r="F5" t="n">
         <v>30733.68994643492</v>
@@ -26490,7 +26490,7 @@
         <v>32917.72075192283</v>
       </c>
       <c r="I5" t="n">
-        <v>36815.02673630136</v>
+        <v>36815.02673630137</v>
       </c>
       <c r="J5" t="n">
         <v>34395.29520612954</v>
@@ -26508,10 +26508,10 @@
         <v>32917.72075192283</v>
       </c>
       <c r="O5" t="n">
-        <v>29251.54951218381</v>
+        <v>29251.5495121838</v>
       </c>
       <c r="P5" t="n">
-        <v>29251.54951218381</v>
+        <v>29251.5495121838</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257257.1533402196</v>
+        <v>257252.8237724333</v>
       </c>
       <c r="C6" t="n">
-        <v>257257.1533402196</v>
+        <v>257252.8237724334</v>
       </c>
       <c r="D6" t="n">
-        <v>257257.1533402196</v>
+        <v>257252.823772433</v>
       </c>
       <c r="E6" t="n">
-        <v>-169262.5428921359</v>
+        <v>-169807.7884706409</v>
       </c>
       <c r="F6" t="n">
-        <v>322686.7473896416</v>
+        <v>322141.5018111366</v>
       </c>
       <c r="G6" t="n">
-        <v>315099.6845110053</v>
+        <v>314649.187344726</v>
       </c>
       <c r="H6" t="n">
-        <v>335882.9059646958</v>
+        <v>335432.4087984166</v>
       </c>
       <c r="I6" t="n">
-        <v>325019.5860920564</v>
+        <v>324633.518008863</v>
       </c>
       <c r="J6" t="n">
-        <v>271163.5629067369</v>
+        <v>270610.1271794046</v>
       </c>
       <c r="K6" t="n">
-        <v>315695.606740405</v>
+        <v>315142.1710130731</v>
       </c>
       <c r="L6" t="n">
-        <v>279140.8469912785</v>
+        <v>278783.2468514682</v>
       </c>
       <c r="M6" t="n">
-        <v>308042.3151759981</v>
+        <v>307591.8180097187</v>
       </c>
       <c r="N6" t="n">
-        <v>335882.9059646962</v>
+        <v>335432.408798417</v>
       </c>
       <c r="O6" t="n">
-        <v>309591.409720912</v>
+        <v>308956.5257102233</v>
       </c>
       <c r="P6" t="n">
-        <v>309591.409720912</v>
+        <v>308956.5257102233</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F2" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G2" t="n">
         <v>125.03012927331</v>
@@ -26724,10 +26724,10 @@
         <v>125.03012927331</v>
       </c>
       <c r="O2" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="P2" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.659339373282</v>
+        <v>434.6593393732819</v>
       </c>
       <c r="F3" t="n">
         <v>434.659339373282</v>
@@ -26801,31 +26801,31 @@
         <v>212.6807436793977</v>
       </c>
       <c r="F4" t="n">
+        <v>212.6807436793977</v>
+      </c>
+      <c r="G4" t="n">
         <v>212.6807436793978</v>
-      </c>
-      <c r="G4" t="n">
-        <v>212.6807436793977</v>
       </c>
       <c r="H4" t="n">
         <v>212.6807436793978</v>
       </c>
       <c r="I4" t="n">
-        <v>276.7811710540445</v>
+        <v>276.7811710540448</v>
       </c>
       <c r="J4" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="K4" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="L4" t="n">
-        <v>313.6434138579775</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="M4" t="n">
-        <v>212.6807436793976</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="N4" t="n">
-        <v>212.6807436793976</v>
+        <v>212.6807436793978</v>
       </c>
       <c r="O4" t="n">
         <v>212.6807436793979</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.97902681711349</v>
+        <v>25.97902681711344</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.60907397184498</v>
+        <v>43.60907397184504</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.659339373282</v>
+        <v>434.6593393732819</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>64.10042737464678</v>
+        <v>64.10042737464701</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86224280393299</v>
+        <v>36.86224280393293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>111.7180735008173</v>
+        <v>111.7180735008181</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.97902681711349</v>
+        <v>25.97902681711344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.60907397184498</v>
+        <v>43.60907397184504</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I11" t="n">
-        <v>69.58810078895847</v>
+        <v>69.58810078895849</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>30.36710318961029</v>
+        <v>30.36710318961032</v>
       </c>
       <c r="S11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="12">
@@ -28168,31 +28168,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I12" t="n">
-        <v>32.50015252754468</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="J12" t="n">
-        <v>27.01377095214641</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>99.05110245619653</v>
+        <v>59.51392347969123</v>
       </c>
       <c r="S12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y12" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="J13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="K13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="L13" t="n">
-        <v>65.47354869293558</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="M13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="N13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="O13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="P13" t="n">
-        <v>99.05110245619653</v>
+        <v>65.47354869293478</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="R13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="S13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I14" t="n">
         <v>69.58810078895847</v>
@@ -28377,25 +28377,25 @@
         <v>30.36710318961029</v>
       </c>
       <c r="S14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I15" t="n">
-        <v>99.05110245619653</v>
+        <v>59.51392347969058</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.51392347969144</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="S15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="C16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="D16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="E16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="F16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="G16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="H16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="I16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="J16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="K16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="L16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="M16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="N16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="O16" t="n">
-        <v>99.05110245619653</v>
+        <v>65.47354869293476</v>
       </c>
       <c r="P16" t="n">
-        <v>65.47354869293591</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Q16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="R16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="S16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="T16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="U16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="V16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="W16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="X16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
       <c r="Y16" t="n">
-        <v>99.05110245619653</v>
+        <v>99.05110245619659</v>
       </c>
     </row>
     <row r="17">
@@ -28584,7 +28584,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="I17" t="n">
-        <v>69.58810078895849</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>30.3671031896103</v>
+        <v>30.36710318961029</v>
       </c>
       <c r="S17" t="n">
         <v>125.03012927331</v>
@@ -28654,16 +28654,16 @@
         <v>125.03012927331</v>
       </c>
       <c r="F18" t="n">
-        <v>105.7198423919039</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.9242921132211</v>
+        <v>30.88626662561369</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>78.38500954389595</v>
       </c>
       <c r="I18" t="n">
-        <v>32.50015252754469</v>
+        <v>32.50015252754468</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28690,13 +28690,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.64415297121637</v>
+        <v>36.64415297121636</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>116.2154995532256</v>
       </c>
       <c r="T18" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>125.03012927331</v>
@@ -28745,16 +28745,16 @@
         <v>125.03012927331</v>
       </c>
       <c r="J19" t="n">
+        <v>90.86358233130568</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>125.03012927331</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>125.03012927331</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>125.03012927331</v>
@@ -28766,7 +28766,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.86358233130541</v>
+        <v>125.03012927331</v>
       </c>
       <c r="R19" t="n">
         <v>125.03012927331</v>
@@ -28930,13 +28930,13 @@
         <v>36.64415297121636</v>
       </c>
       <c r="S21" t="n">
-        <v>116.2154995532256</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29.17747406561818</v>
       </c>
       <c r="U21" t="n">
-        <v>37.9921037857026</v>
+        <v>125.03012927331</v>
       </c>
       <c r="V21" t="n">
         <v>125.03012927331</v>
@@ -28985,22 +28985,22 @@
         <v>125.03012927331</v>
       </c>
       <c r="K22" t="n">
-        <v>90.86358233130565</v>
+        <v>90.86358233130562</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>125.03012927331</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>125.03012927331</v>
       </c>
       <c r="N22" t="n">
         <v>125.03012927331</v>
       </c>
       <c r="O22" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>125.03012927331</v>
@@ -29058,31 +29058,31 @@
         <v>125.03012927331</v>
       </c>
       <c r="I23" t="n">
+        <v>103.7067386729752</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>125.03012927331</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>103.7067386729744</v>
       </c>
       <c r="R23" t="n">
         <v>125.03012927331</v>
@@ -29125,7 +29125,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="E24" t="n">
-        <v>116.3771133295983</v>
+        <v>125.03012927331</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -29134,7 +29134,7 @@
         <v>117.9242921132211</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>78.38500954389595</v>
       </c>
       <c r="I24" t="n">
         <v>32.50015252754468</v>
@@ -29176,7 +29176,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>125.03012927331</v>
+        <v>37.99210378570243</v>
       </c>
       <c r="W24" t="n">
         <v>125.03012927331</v>
@@ -29234,10 +29234,10 @@
         <v>125.03012927331</v>
       </c>
       <c r="O25" t="n">
-        <v>94.61511702571119</v>
+        <v>125.03012927331</v>
       </c>
       <c r="P25" t="n">
-        <v>125.03012927331</v>
+        <v>94.6151170257121</v>
       </c>
       <c r="Q25" t="n">
         <v>125.03012927331</v>
@@ -29298,28 +29298,28 @@
         <v>69.58810078895847</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>69.58810078895847</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.58810078895847</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>69.58810078895847</v>
@@ -29374,22 +29374,22 @@
         <v>69.58810078895847</v>
       </c>
       <c r="I27" t="n">
+        <v>16.70398697575219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>69.58810078895847</v>
-      </c>
-      <c r="J27" t="n">
-        <v>69.58810078895847</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>30.1986097763444</v>
       </c>
       <c r="O27" t="n">
         <v>69.58810078895847</v>
@@ -29401,7 +29401,7 @@
         <v>69.58810078895847</v>
       </c>
       <c r="R27" t="n">
-        <v>69.58810078895847</v>
+        <v>36.64415297121636</v>
       </c>
       <c r="S27" t="n">
         <v>69.58810078895847</v>
@@ -29462,13 +29462,13 @@
         <v>69.58810078895847</v>
       </c>
       <c r="L28" t="n">
+        <v>31.32646270627484</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>69.58810078895847</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>69.58810078895847</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.58810078895847</v>
+        <v>12.44155661885364</v>
       </c>
       <c r="R28" t="n">
         <v>69.58810078895847</v>
@@ -29538,10 +29538,10 @@
         <v>69.58810078895847</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="L29" t="n">
-        <v>69.58810078895847</v>
+        <v>62.49477977600701</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.58810078895847</v>
+        <v>30.36710318961029</v>
       </c>
       <c r="S29" t="n">
         <v>69.58810078895847</v>
@@ -29611,31 +29611,31 @@
         <v>69.58810078895847</v>
       </c>
       <c r="I30" t="n">
-        <v>69.58810078895847</v>
+        <v>16.70398697575219</v>
       </c>
       <c r="J30" t="n">
         <v>69.58810078895847</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>69.58810078895847</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>69.58810078895847</v>
       </c>
       <c r="O30" t="n">
-        <v>69.58810078895847</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39.38949101262279</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.58810078895847</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>69.58810078895847</v>
@@ -29696,22 +29696,22 @@
         <v>69.58810078895847</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>69.58810078895847</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>69.58810078895847</v>
       </c>
       <c r="Q31" t="n">
         <v>69.58810078895847</v>
@@ -29772,16 +29772,16 @@
         <v>125.03012927331</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>125.03012927331</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>94.26909387815238</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>125.03012927331</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29790,13 +29790,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.36710318961029</v>
+        <v>124.6361970677631</v>
       </c>
       <c r="S32" t="n">
         <v>125.03012927331</v>
@@ -29842,13 +29842,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.9242921132211</v>
       </c>
       <c r="H33" t="n">
         <v>78.38500954389595</v>
       </c>
       <c r="I33" t="n">
-        <v>32.50015252754468</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29878,10 +29878,10 @@
         <v>36.64415297121636</v>
       </c>
       <c r="S33" t="n">
-        <v>116.2154995532256</v>
+        <v>61.67762659316281</v>
       </c>
       <c r="T33" t="n">
-        <v>30.8862666256137</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>125.03012927331</v>
@@ -29927,7 +29927,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="I34" t="n">
-        <v>125.03012927331</v>
+        <v>108.192118901968</v>
       </c>
       <c r="J34" t="n">
         <v>125.03012927331</v>
@@ -29945,10 +29945,10 @@
         <v>125.03012927331</v>
       </c>
       <c r="O34" t="n">
-        <v>94.61511702571153</v>
+        <v>125.03012927331</v>
       </c>
       <c r="P34" t="n">
-        <v>125.03012927331</v>
+        <v>111.4531273970535</v>
       </c>
       <c r="Q34" t="n">
         <v>125.03012927331</v>
@@ -30073,7 +30073,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="E36" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -30085,7 +30085,7 @@
         <v>78.38500954389595</v>
       </c>
       <c r="I36" t="n">
-        <v>32.50015252754468</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30115,10 +30115,10 @@
         <v>36.64415297121636</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>116.2154995532256</v>
       </c>
       <c r="T36" t="n">
-        <v>125.03012927331</v>
+        <v>70.49225631324728</v>
       </c>
       <c r="U36" t="n">
         <v>125.03012927331</v>
@@ -30127,7 +30127,7 @@
         <v>125.03012927331</v>
       </c>
       <c r="W36" t="n">
-        <v>29.17747406561827</v>
+        <v>125.03012927331</v>
       </c>
       <c r="X36" t="n">
         <v>125.03012927331</v>
@@ -30164,22 +30164,22 @@
         <v>125.03012927331</v>
       </c>
       <c r="I37" t="n">
-        <v>108.192118901968</v>
+        <v>125.03012927331</v>
       </c>
       <c r="J37" t="n">
-        <v>107.7015927026471</v>
+        <v>125.03012927331</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>90.86358233130592</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>125.03012927331</v>
       </c>
       <c r="M37" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>125.03012927331</v>
@@ -30307,13 +30307,13 @@
         <v>125.03012927331</v>
       </c>
       <c r="D39" t="n">
+        <v>37.99210378570261</v>
+      </c>
+      <c r="E39" t="n">
         <v>125.03012927331</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
-        <v>36.14946256809209</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>117.9242921132211</v>
@@ -30355,7 +30355,7 @@
         <v>116.2154995532256</v>
       </c>
       <c r="T39" t="n">
-        <v>125.03012927331</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>125.03012927331</v>
@@ -30404,19 +30404,19 @@
         <v>125.03012927331</v>
       </c>
       <c r="J40" t="n">
-        <v>90.86358233130511</v>
+        <v>125.03012927331</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>90.86358233130588</v>
+      </c>
+      <c r="N40" t="n">
         <v>125.03012927331</v>
-      </c>
-      <c r="L40" t="n">
-        <v>125.03012927331</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>125.03012927331</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="I41" t="n">
         <v>69.58810078895847</v>
@@ -30510,25 +30510,25 @@
         <v>30.36710318961029</v>
       </c>
       <c r="S41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="42">
@@ -30538,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>13.35296248768977</v>
       </c>
       <c r="K42" t="n">
-        <v>13.35296248768941</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="S42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="I43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="J43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="K43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="L43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="M43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="N43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="O43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="P43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="R43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="S43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="I44" t="n">
         <v>69.58810078895847</v>
@@ -30747,25 +30747,25 @@
         <v>30.36710318961029</v>
       </c>
       <c r="S44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="45">
@@ -30775,22 +30775,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H45" t="n">
         <v>78.38500954389595</v>
@@ -30817,34 +30817,34 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.309911019179</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>65.30991101917921</v>
       </c>
       <c r="R45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="S45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="C46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="D46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="E46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="F46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="G46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="H46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="I46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="J46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="K46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="L46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="M46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="N46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="O46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="P46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="R46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="S46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="T46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="U46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="V46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="W46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="X46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.42105530146505</v>
+        <v>81.42105530146499</v>
       </c>
     </row>
   </sheetData>
@@ -31755,34 +31755,34 @@
         <v>1.747374228636308</v>
       </c>
       <c r="H11" t="n">
-        <v>17.8952963190216</v>
+        <v>17.89529631902159</v>
       </c>
       <c r="I11" t="n">
-        <v>67.36564494950134</v>
+        <v>67.36564494950133</v>
       </c>
       <c r="J11" t="n">
         <v>148.306203437721</v>
       </c>
       <c r="K11" t="n">
-        <v>222.272554535896</v>
+        <v>222.2725545358959</v>
       </c>
       <c r="L11" t="n">
-        <v>275.7487585855245</v>
+        <v>275.7487585855244</v>
       </c>
       <c r="M11" t="n">
-        <v>306.8236250240354</v>
+        <v>306.8236250240353</v>
       </c>
       <c r="N11" t="n">
         <v>311.7883520511483</v>
       </c>
       <c r="O11" t="n">
-        <v>294.412899565146</v>
+        <v>294.4128995651459</v>
       </c>
       <c r="P11" t="n">
         <v>251.2745982956871</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.6967587326493</v>
+        <v>188.6967587326492</v>
       </c>
       <c r="R11" t="n">
         <v>109.7634963895756</v>
@@ -31791,7 +31791,7 @@
         <v>39.81829023504991</v>
       </c>
       <c r="T11" t="n">
-        <v>7.649130685855444</v>
+        <v>7.649130685855441</v>
       </c>
       <c r="U11" t="n">
         <v>0.1397899382909046</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9349276356330972</v>
+        <v>0.934927635633097</v>
       </c>
       <c r="H12" t="n">
-        <v>9.029432691509124</v>
+        <v>9.029432691509122</v>
       </c>
       <c r="I12" t="n">
-        <v>32.18939447245533</v>
+        <v>32.18939447245532</v>
       </c>
       <c r="J12" t="n">
-        <v>88.33015876830066</v>
+        <v>88.33015876830063</v>
       </c>
       <c r="K12" t="n">
-        <v>150.9703103557182</v>
+        <v>150.9703103557181</v>
       </c>
       <c r="L12" t="n">
-        <v>202.998213166739</v>
+        <v>202.9982131667389</v>
       </c>
       <c r="M12" t="n">
-        <v>236.8893399584387</v>
+        <v>236.8893399584386</v>
       </c>
       <c r="N12" t="n">
         <v>243.159095900908</v>
       </c>
       <c r="O12" t="n">
-        <v>222.4430677639852</v>
+        <v>222.4430677639851</v>
       </c>
       <c r="P12" t="n">
-        <v>178.5301728078675</v>
+        <v>178.5301728078674</v>
       </c>
       <c r="Q12" t="n">
         <v>119.3426925766038</v>
       </c>
       <c r="R12" t="n">
-        <v>58.04752460536022</v>
+        <v>58.0475246053602</v>
       </c>
       <c r="S12" t="n">
-        <v>17.36587077590423</v>
+        <v>17.36587077590422</v>
       </c>
       <c r="T12" t="n">
         <v>3.768414461170245</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06150839708112484</v>
+        <v>0.06150839708112482</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7838119234600167</v>
+        <v>0.7838119234600165</v>
       </c>
       <c r="H13" t="n">
-        <v>6.968800555853607</v>
+        <v>6.968800555853606</v>
       </c>
       <c r="I13" t="n">
         <v>23.57136220732487</v>
       </c>
       <c r="J13" t="n">
-        <v>55.41550298862317</v>
+        <v>55.41550298862316</v>
       </c>
       <c r="K13" t="n">
-        <v>91.06469438017282</v>
+        <v>91.06469438017281</v>
       </c>
       <c r="L13" t="n">
-        <v>116.5314563296829</v>
+        <v>116.5314563296828</v>
       </c>
       <c r="M13" t="n">
-        <v>122.8660817838279</v>
+        <v>122.8660817838278</v>
       </c>
       <c r="N13" t="n">
-        <v>119.9446009782043</v>
+        <v>119.9446009782042</v>
       </c>
       <c r="O13" t="n">
         <v>110.7882525996031</v>
       </c>
       <c r="P13" t="n">
-        <v>94.79848936101871</v>
+        <v>94.79848936101868</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.63356024536559</v>
+        <v>65.63356024536557</v>
       </c>
       <c r="R13" t="n">
-        <v>35.24303430393856</v>
+        <v>35.24303430393855</v>
       </c>
       <c r="S13" t="n">
         <v>13.65970415702592</v>
       </c>
       <c r="T13" t="n">
-        <v>3.349014582056434</v>
+        <v>3.349014582056433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04275337764327369</v>
+        <v>0.04275337764327367</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,19 +32229,19 @@
         <v>1.747374228636308</v>
       </c>
       <c r="H17" t="n">
-        <v>17.89529631902159</v>
+        <v>17.8952963190216</v>
       </c>
       <c r="I17" t="n">
-        <v>67.36564494950133</v>
+        <v>67.36564494950134</v>
       </c>
       <c r="J17" t="n">
         <v>148.306203437721</v>
       </c>
       <c r="K17" t="n">
-        <v>222.2725545358959</v>
+        <v>222.272554535896</v>
       </c>
       <c r="L17" t="n">
-        <v>275.7487585855244</v>
+        <v>275.7487585855245</v>
       </c>
       <c r="M17" t="n">
         <v>306.8236250240354</v>
@@ -32256,7 +32256,7 @@
         <v>251.2745982956871</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.6967587326492</v>
+        <v>188.6967587326493</v>
       </c>
       <c r="R17" t="n">
         <v>109.7634963895756</v>
@@ -32265,7 +32265,7 @@
         <v>39.81829023504991</v>
       </c>
       <c r="T17" t="n">
-        <v>7.649130685855442</v>
+        <v>7.649130685855444</v>
       </c>
       <c r="U17" t="n">
         <v>0.1397899382909046</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9349276356330971</v>
+        <v>0.9349276356330972</v>
       </c>
       <c r="H18" t="n">
         <v>9.029432691509124</v>
       </c>
       <c r="I18" t="n">
-        <v>32.18939447245532</v>
+        <v>32.18939447245533</v>
       </c>
       <c r="J18" t="n">
-        <v>88.33015876830065</v>
+        <v>88.33015876830066</v>
       </c>
       <c r="K18" t="n">
-        <v>150.9703103557181</v>
+        <v>150.9703103557182</v>
       </c>
       <c r="L18" t="n">
-        <v>202.9982131667389</v>
+        <v>202.998213166739</v>
       </c>
       <c r="M18" t="n">
         <v>236.8893399584387</v>
@@ -32338,7 +32338,7 @@
         <v>119.3426925766038</v>
       </c>
       <c r="R18" t="n">
-        <v>58.04752460536021</v>
+        <v>58.04752460536022</v>
       </c>
       <c r="S18" t="n">
         <v>17.36587077590423</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7838119234600166</v>
+        <v>0.7838119234600167</v>
       </c>
       <c r="H19" t="n">
         <v>6.968800555853607</v>
@@ -32396,7 +32396,7 @@
         <v>55.41550298862317</v>
       </c>
       <c r="K19" t="n">
-        <v>91.06469438017281</v>
+        <v>91.06469438017282</v>
       </c>
       <c r="L19" t="n">
         <v>116.5314563296829</v>
@@ -32405,16 +32405,16 @@
         <v>122.8660817838279</v>
       </c>
       <c r="N19" t="n">
-        <v>119.9446009782042</v>
+        <v>119.9446009782043</v>
       </c>
       <c r="O19" t="n">
         <v>110.7882525996031</v>
       </c>
       <c r="P19" t="n">
-        <v>94.7984893610187</v>
+        <v>94.79848936101871</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.63356024536557</v>
+        <v>65.63356024536559</v>
       </c>
       <c r="R19" t="n">
         <v>35.24303430393856</v>
@@ -32426,7 +32426,7 @@
         <v>3.349014582056434</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04275337764327368</v>
+        <v>0.04275337764327369</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33915,7 +33915,7 @@
         <v>251.2745982956871</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.6967587326487</v>
+        <v>188.6967587326493</v>
       </c>
       <c r="R38" t="n">
         <v>109.7634963895756</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.6263654953749</v>
+        <v>30.62636549537487</v>
       </c>
       <c r="K11" t="n">
-        <v>79.21415135665862</v>
+        <v>79.21415135665856</v>
       </c>
       <c r="L11" t="n">
-        <v>122.5005888550328</v>
+        <v>122.5005888550327</v>
       </c>
       <c r="M11" t="n">
         <v>157.0985734263081</v>
@@ -35430,7 +35430,7 @@
         <v>100.9731510547619</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.19806031425711</v>
+        <v>44.19806031425705</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35482,37 +35482,37 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.66609291230058</v>
+        <v>20.66609291230063</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.5509499286519</v>
       </c>
       <c r="J12" t="n">
-        <v>32.89947238711373</v>
+        <v>5.885701434967288</v>
       </c>
       <c r="K12" t="n">
-        <v>61.37337502238482</v>
+        <v>61.37337502238476</v>
       </c>
       <c r="L12" t="n">
         <v>112.9378663098207</v>
       </c>
       <c r="M12" t="n">
-        <v>144.5022179091268</v>
+        <v>144.5022179091267</v>
       </c>
       <c r="N12" t="n">
-        <v>157.7869830467414</v>
+        <v>157.7869830467413</v>
       </c>
       <c r="O12" t="n">
         <v>129.7555088750963</v>
       </c>
       <c r="P12" t="n">
-        <v>91.44680798855285</v>
+        <v>91.44680798855279</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.35453942068979</v>
+        <v>28.35453942068976</v>
       </c>
       <c r="R12" t="n">
-        <v>62.40694948498017</v>
+        <v>22.86977050847485</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.91958150921224</v>
+        <v>71.91958150921228</v>
       </c>
       <c r="K13" t="n">
         <v>106.2571790255214</v>
       </c>
       <c r="L13" t="n">
-        <v>94.32996543981356</v>
+        <v>127.9075192030745</v>
       </c>
       <c r="M13" t="n">
-        <v>131.6154246740811</v>
+        <v>131.6154246740812</v>
       </c>
       <c r="N13" t="n">
         <v>136.0000995319992</v>
@@ -35585,13 +35585,13 @@
         <v>119.8426050621019</v>
       </c>
       <c r="P13" t="n">
-        <v>104.3263891852693</v>
+        <v>70.74883542200753</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.20641164242232</v>
+        <v>66.20641164242237</v>
       </c>
       <c r="R13" t="n">
-        <v>11.63215728638629</v>
+        <v>11.63215728638634</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35719,10 +35719,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20.66609291230058</v>
+        <v>20.66609291230063</v>
       </c>
       <c r="I15" t="n">
-        <v>66.55094992865185</v>
+        <v>27.01377095214589</v>
       </c>
       <c r="J15" t="n">
         <v>5.885701434967316</v>
@@ -35749,7 +35749,7 @@
         <v>28.35453942068979</v>
       </c>
       <c r="R15" t="n">
-        <v>22.86977050847508</v>
+        <v>62.40694948498022</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.91958150921224</v>
+        <v>71.91958150921229</v>
       </c>
       <c r="K16" t="n">
         <v>106.2571790255214</v>
       </c>
       <c r="L16" t="n">
-        <v>127.9075192030745</v>
+        <v>127.9075192030746</v>
       </c>
       <c r="M16" t="n">
-        <v>131.6154246740811</v>
+        <v>131.6154246740812</v>
       </c>
       <c r="N16" t="n">
-        <v>136.0000995319992</v>
+        <v>136.0000995319993</v>
       </c>
       <c r="O16" t="n">
-        <v>119.8426050621019</v>
+        <v>86.26505129884008</v>
       </c>
       <c r="P16" t="n">
-        <v>70.74883542200868</v>
+        <v>104.3263891852694</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.20641164242232</v>
+        <v>66.20641164242238</v>
       </c>
       <c r="R16" t="n">
-        <v>11.63215728638629</v>
+        <v>11.63215728638635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>30.6263654953749</v>
       </c>
       <c r="K17" t="n">
-        <v>79.21415135665859</v>
+        <v>79.21415135665862</v>
       </c>
       <c r="L17" t="n">
-        <v>122.5005888550327</v>
+        <v>122.5005888550328</v>
       </c>
       <c r="M17" t="n">
         <v>157.0985734263081</v>
@@ -35904,7 +35904,7 @@
         <v>100.9731510547619</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.19806031425708</v>
+        <v>44.19806031425711</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.885701434967302</v>
+        <v>5.885701434967316</v>
       </c>
       <c r="K18" t="n">
-        <v>61.37337502238479</v>
+        <v>61.37337502238482</v>
       </c>
       <c r="L18" t="n">
         <v>112.9378663098207</v>
       </c>
       <c r="M18" t="n">
-        <v>144.5022179091267</v>
+        <v>144.5022179091268</v>
       </c>
       <c r="N18" t="n">
-        <v>157.7869830467413</v>
+        <v>157.7869830467414</v>
       </c>
       <c r="O18" t="n">
         <v>129.7555088750963</v>
       </c>
       <c r="P18" t="n">
-        <v>91.44680798855282</v>
+        <v>91.44680798855285</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.35453942068978</v>
+        <v>28.35453942068979</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>16.83801037134201</v>
       </c>
       <c r="J19" t="n">
-        <v>97.89860832632573</v>
+        <v>63.73206138432139</v>
       </c>
       <c r="K19" t="n">
-        <v>7.206076569324821</v>
+        <v>7.206076569324836</v>
       </c>
       <c r="L19" t="n">
-        <v>153.886546020188</v>
+        <v>28.85641674687798</v>
       </c>
       <c r="M19" t="n">
-        <v>32.56432221788458</v>
+        <v>157.5944514911946</v>
       </c>
       <c r="N19" t="n">
         <v>161.9791263491127</v>
@@ -36062,7 +36062,7 @@
         <v>130.3054160023828</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.01889151753119</v>
+        <v>92.18543845953582</v>
       </c>
       <c r="R19" t="n">
         <v>37.61118410349978</v>
@@ -36281,22 +36281,22 @@
         <v>97.89860832632573</v>
       </c>
       <c r="K22" t="n">
-        <v>98.06965890063049</v>
+        <v>98.06965890063046</v>
       </c>
       <c r="L22" t="n">
-        <v>28.85641674687798</v>
+        <v>153.886546020188</v>
       </c>
       <c r="M22" t="n">
-        <v>32.56432221788459</v>
+        <v>157.5944514911946</v>
       </c>
       <c r="N22" t="n">
         <v>161.9791263491127</v>
       </c>
       <c r="O22" t="n">
-        <v>145.8216318792153</v>
+        <v>20.79150260590532</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3054160023828</v>
+        <v>5.275286729072775</v>
       </c>
       <c r="Q22" t="n">
         <v>92.18543845953582</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>55.44202848435155</v>
+        <v>34.11863788401676</v>
       </c>
       <c r="J23" t="n">
         <v>30.6263654953749</v>
@@ -36378,7 +36378,7 @@
         <v>100.9731510547619</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.9047989872315</v>
+        <v>169.2281895875671</v>
       </c>
       <c r="R23" t="n">
         <v>94.66302608369973</v>
@@ -36530,10 +36530,10 @@
         <v>161.9791263491127</v>
       </c>
       <c r="O25" t="n">
-        <v>115.4066196316165</v>
+        <v>145.8216318792153</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3054160023828</v>
+        <v>99.89040375478487</v>
       </c>
       <c r="Q25" t="n">
         <v>92.18543845953582</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>30.6263654953749</v>
+        <v>100.2144662843334</v>
       </c>
       <c r="K26" t="n">
         <v>79.21415135665862</v>
       </c>
       <c r="L26" t="n">
-        <v>192.0886896439912</v>
+        <v>122.5005888550328</v>
       </c>
       <c r="M26" t="n">
-        <v>157.0985734263081</v>
+        <v>308.8846543692092</v>
       </c>
       <c r="N26" t="n">
         <v>162.6698607133642</v>
       </c>
       <c r="O26" t="n">
-        <v>144.8490621410496</v>
+        <v>214.4371629300081</v>
       </c>
       <c r="P26" t="n">
-        <v>100.9731510547619</v>
+        <v>170.5612518437204</v>
       </c>
       <c r="Q26" t="n">
-        <v>232.6427278332218</v>
+        <v>44.19806031425711</v>
       </c>
       <c r="R26" t="n">
-        <v>141.7386126012008</v>
+        <v>39.22099759934818</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>52.88411381320628</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9529219193504</v>
+        <v>5.885701434967316</v>
       </c>
       <c r="K27" t="n">
         <v>61.37337502238482</v>
       </c>
       <c r="L27" t="n">
-        <v>112.9378663098207</v>
+        <v>175.3024614636879</v>
       </c>
       <c r="M27" t="n">
-        <v>144.5022179091268</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="N27" t="n">
-        <v>187.9855928230858</v>
+        <v>227.3750838356999</v>
       </c>
       <c r="O27" t="n">
         <v>199.3436096640548</v>
@@ -36697,7 +36697,7 @@
         <v>97.94264020964826</v>
       </c>
       <c r="R27" t="n">
-        <v>32.94394781774211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>94.92911630542258</v>
       </c>
       <c r="K28" t="n">
-        <v>243.3144528559413</v>
+        <v>76.79417735828331</v>
       </c>
       <c r="L28" t="n">
-        <v>98.44451753583645</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="M28" t="n">
-        <v>55.28491827725067</v>
+        <v>38.9365686481607</v>
       </c>
       <c r="N28" t="n">
-        <v>304.9846353531631</v>
+        <v>106.5370978647612</v>
       </c>
       <c r="O28" t="n">
-        <v>90.37960339486379</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="P28" t="n">
         <v>215.8855254989769</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.6784250444765</v>
+        <v>81.53188087437171</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>100.2144662843334</v>
       </c>
       <c r="K29" t="n">
-        <v>79.21415135665862</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="L29" t="n">
-        <v>192.0886896439912</v>
+        <v>184.9953686310398</v>
       </c>
       <c r="M29" t="n">
-        <v>157.0985734263081</v>
+        <v>190.3578112691482</v>
       </c>
       <c r="N29" t="n">
         <v>162.6698607133642</v>
@@ -36852,10 +36852,10 @@
         <v>100.9731510547619</v>
       </c>
       <c r="Q29" t="n">
-        <v>265.572242046116</v>
+        <v>44.19806031425711</v>
       </c>
       <c r="R29" t="n">
-        <v>39.22099759934818</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>37.08794826141379</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>75.47380222392579</v>
       </c>
       <c r="K30" t="n">
-        <v>113.8696782443652</v>
+        <v>130.9614758113433</v>
       </c>
       <c r="L30" t="n">
-        <v>182.5259670987792</v>
+        <v>112.9378663098207</v>
       </c>
       <c r="M30" t="n">
-        <v>144.5022179091268</v>
+        <v>214.0903186980852</v>
       </c>
       <c r="N30" t="n">
         <v>227.3750838356999</v>
       </c>
       <c r="O30" t="n">
-        <v>199.3436096640548</v>
+        <v>129.7555088750963</v>
       </c>
       <c r="P30" t="n">
-        <v>130.8362990011756</v>
+        <v>91.44680798855285</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.94264020964826</v>
+        <v>226.9163827056652</v>
       </c>
       <c r="R30" t="n">
         <v>32.94394781774211</v>
@@ -36992,25 +36992,25 @@
         <v>94.92911630542258</v>
       </c>
       <c r="K31" t="n">
-        <v>173.7263520669828</v>
+        <v>243.3144528559413</v>
       </c>
       <c r="L31" t="n">
-        <v>282.3169511517028</v>
+        <v>313.6434138579777</v>
       </c>
       <c r="M31" t="n">
-        <v>278.6243245166616</v>
+        <v>32.56432221788459</v>
       </c>
       <c r="N31" t="n">
-        <v>36.94899707580271</v>
+        <v>144.8532493707222</v>
       </c>
       <c r="O31" t="n">
-        <v>20.79150260590532</v>
+        <v>90.37960339486379</v>
       </c>
       <c r="P31" t="n">
-        <v>215.8855254989769</v>
+        <v>285.4736262879354</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.6784250444765</v>
+        <v>36.74340997518426</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>55.44202848435155</v>
       </c>
       <c r="J32" t="n">
-        <v>30.6263654953749</v>
+        <v>155.6564947686849</v>
       </c>
       <c r="K32" t="n">
         <v>79.21415135665862</v>
       </c>
       <c r="L32" t="n">
-        <v>216.7696827331851</v>
+        <v>122.5005888550328</v>
       </c>
       <c r="M32" t="n">
-        <v>157.0985734263081</v>
+        <v>282.1287026996181</v>
       </c>
       <c r="N32" t="n">
         <v>162.6698607133642</v>
@@ -37086,13 +37086,13 @@
         <v>144.8490621410496</v>
       </c>
       <c r="P32" t="n">
-        <v>226.003280328072</v>
+        <v>100.9731510547619</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.2281895875671</v>
+        <v>44.19806031425711</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>94.26909387815282</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37223,7 +37223,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.83801037134201</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>97.89860832632573</v>
@@ -37241,10 +37241,10 @@
         <v>161.9791263491127</v>
       </c>
       <c r="O34" t="n">
-        <v>115.4066196316168</v>
+        <v>145.8216318792153</v>
       </c>
       <c r="P34" t="n">
-        <v>130.3054160023828</v>
+        <v>116.7284141261263</v>
       </c>
       <c r="Q34" t="n">
         <v>92.18543845953582</v>
@@ -37460,22 +37460,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>16.83801037134201</v>
       </c>
       <c r="J37" t="n">
-        <v>80.57007175566284</v>
+        <v>97.89860832632573</v>
       </c>
       <c r="K37" t="n">
-        <v>7.206076569324836</v>
+        <v>98.06965890063076</v>
       </c>
       <c r="L37" t="n">
-        <v>28.85641674687798</v>
+        <v>153.886546020188</v>
       </c>
       <c r="M37" t="n">
-        <v>157.5944514911946</v>
+        <v>32.56432221788459</v>
       </c>
       <c r="N37" t="n">
-        <v>161.9791263491127</v>
+        <v>36.94899707580271</v>
       </c>
       <c r="O37" t="n">
         <v>145.8216318792153</v>
@@ -37563,7 +37563,7 @@
         <v>100.9731510547619</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.19806031425658</v>
+        <v>44.19806031425711</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>16.83801037134201</v>
       </c>
       <c r="J40" t="n">
-        <v>63.73206138432082</v>
+        <v>97.89860832632573</v>
       </c>
       <c r="K40" t="n">
-        <v>132.2362058426349</v>
+        <v>7.206076569324836</v>
       </c>
       <c r="L40" t="n">
-        <v>153.886546020188</v>
+        <v>28.85641674687798</v>
       </c>
       <c r="M40" t="n">
-        <v>32.56432221788459</v>
+        <v>123.4279045491905</v>
       </c>
       <c r="N40" t="n">
-        <v>36.94899707580271</v>
+        <v>161.9791263491127</v>
       </c>
       <c r="O40" t="n">
         <v>145.8216318792153</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62636549537532</v>
+        <v>30.6263654953749</v>
       </c>
       <c r="K41" t="n">
-        <v>79.21415135665862</v>
+        <v>79.21415135665903</v>
       </c>
       <c r="L41" t="n">
         <v>122.5005888550328</v>
@@ -37852,16 +37852,16 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3.036045757569093</v>
+        <v>3.036045757569036</v>
       </c>
       <c r="I42" t="n">
-        <v>48.92090277392037</v>
+        <v>48.92090277392031</v>
       </c>
       <c r="J42" t="n">
-        <v>5.885701434967316</v>
+        <v>19.23866392265708</v>
       </c>
       <c r="K42" t="n">
-        <v>74.72633751007423</v>
+        <v>61.37337502238482</v>
       </c>
       <c r="L42" t="n">
         <v>112.9378663098207</v>
@@ -37882,7 +37882,7 @@
         <v>28.35453942068979</v>
       </c>
       <c r="R42" t="n">
-        <v>44.77690233024868</v>
+        <v>44.77690233024862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>106.7620708179292</v>
+        <v>54.28953435448069</v>
       </c>
       <c r="K43" t="n">
-        <v>88.62713187078988</v>
+        <v>109.0267464717196</v>
       </c>
       <c r="L43" t="n">
         <v>110.277472048343</v>
       </c>
       <c r="M43" t="n">
-        <v>113.9853775193496</v>
+        <v>212.6807436793979</v>
       </c>
       <c r="N43" t="n">
-        <v>118.3700523772678</v>
+        <v>118.3700523772677</v>
       </c>
       <c r="O43" t="n">
-        <v>102.2125579073704</v>
+        <v>102.2125579073703</v>
       </c>
       <c r="P43" t="n">
-        <v>86.69634203053782</v>
+        <v>86.69634203053776</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.19880878522</v>
+        <v>48.57636448769078</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>129.7555088750963</v>
       </c>
       <c r="P45" t="n">
-        <v>156.7567190077318</v>
+        <v>91.44680798855285</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.35453942068979</v>
+        <v>93.664450439869</v>
       </c>
       <c r="R45" t="n">
-        <v>44.77690233024868</v>
+        <v>44.77690233024862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>106.7620708179292</v>
+        <v>54.28953435448069</v>
       </c>
       <c r="K46" t="n">
-        <v>88.62713187078988</v>
+        <v>113.4114213296377</v>
       </c>
       <c r="L46" t="n">
         <v>110.277472048343</v>
@@ -38186,16 +38186,16 @@
         <v>113.9853775193496</v>
       </c>
       <c r="N46" t="n">
-        <v>118.3700523772678</v>
+        <v>212.6807436793979</v>
       </c>
       <c r="O46" t="n">
-        <v>102.2125579073704</v>
+        <v>102.2125579073703</v>
       </c>
       <c r="P46" t="n">
-        <v>86.69634203053782</v>
+        <v>86.69634203053776</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.19880878522</v>
+        <v>48.57636448769078</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
